--- a/capiq_data/in_process_data/IQ27504.xlsx
+++ b/capiq_data/in_process_data/IQ27504.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF6BEE1-7E3C-4FAB-8A89-01C099AA213E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1DBEE-D5E0-4DB5-BF2E-C9D2BED78905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"288c1bdd-9a3a-49e9-8f46-6fe221b4ae54"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4baf2837-4aba-4dcd-b4fe-e4d7032df925"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>67.826999999999998</v>
+        <v>30.861999999999998</v>
       </c>
       <c r="D2">
-        <v>568.16899999999998</v>
+        <v>234.35300000000001</v>
       </c>
       <c r="E2">
-        <v>344.79599999999999</v>
+        <v>133.643</v>
       </c>
       <c r="F2">
-        <v>287.71199999999999</v>
+        <v>122.428</v>
       </c>
       <c r="G2">
-        <v>1315.0450000000001</v>
+        <v>325.45400000000001</v>
       </c>
       <c r="H2">
-        <v>3257.951</v>
+        <v>866.61500000000001</v>
       </c>
       <c r="I2">
-        <v>114.479</v>
+        <v>45.764000000000003</v>
       </c>
       <c r="J2">
-        <v>753.03099999999995</v>
+        <v>109.5</v>
       </c>
       <c r="K2">
-        <v>5.2759999999999998</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,120 +892,120 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>360.09100000000001</v>
+        <v>168.13800000000001</v>
       </c>
       <c r="O2">
-        <v>1348.039</v>
+        <v>341.68400000000003</v>
       </c>
       <c r="P2">
-        <v>786.61800000000005</v>
+        <v>110.294</v>
       </c>
       <c r="Q2">
-        <v>5.7949999999999999</v>
+        <v>3.1309999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>9700</v>
+        <v>6150</v>
       </c>
       <c r="T2">
-        <v>1909.912</v>
+        <v>524.93100000000004</v>
       </c>
       <c r="U2">
-        <v>540.03800000000001</v>
+        <v>15.433</v>
       </c>
       <c r="V2">
-        <v>121.40300000000001</v>
+        <v>33.277999999999999</v>
       </c>
       <c r="W2">
-        <v>-6.0250000000000004</v>
+        <v>-3.222</v>
       </c>
       <c r="X2">
-        <v>-16.113</v>
+        <v>-18.954999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-49.654000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>67.826999999999998</v>
+        <v>30.861999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>69.084000000000003</v>
+        <v>34.326000000000001</v>
       </c>
       <c r="D3">
-        <v>570.50300000000004</v>
+        <v>245.66900000000001</v>
       </c>
       <c r="E3">
-        <v>385.35700000000003</v>
+        <v>136.358</v>
       </c>
       <c r="F3">
-        <v>299.98399999999998</v>
+        <v>129.81399999999999</v>
       </c>
       <c r="G3">
-        <v>1412.068</v>
+        <v>338.935</v>
       </c>
       <c r="H3">
-        <v>3437.049</v>
+        <v>1075.807</v>
       </c>
       <c r="I3">
-        <v>111.943</v>
+        <v>47.332000000000001</v>
       </c>
       <c r="J3">
-        <v>841.38099999999997</v>
+        <v>272.33</v>
       </c>
       <c r="K3">
-        <v>11.452999999999999</v>
+        <v>1.296</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-3.7370000000000001</v>
       </c>
       <c r="M3">
-        <v>-1.9510000000000001</v>
+        <v>-33.707000000000001</v>
       </c>
       <c r="N3">
-        <v>362.01100000000002</v>
+        <v>185.42099999999999</v>
       </c>
       <c r="O3">
-        <v>1454.55</v>
+        <v>534.87</v>
       </c>
       <c r="P3">
-        <v>880.23099999999999</v>
+        <v>273.62599999999998</v>
       </c>
       <c r="Q3">
-        <v>35.225999999999999</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1982.499</v>
+        <v>540.93700000000001</v>
       </c>
       <c r="U3">
-        <v>575.26400000000001</v>
+        <v>15.337999999999999</v>
       </c>
       <c r="V3">
-        <v>44.728000000000002</v>
+        <v>47.258000000000003</v>
       </c>
       <c r="W3">
-        <v>-7.1310000000000002</v>
+        <v>-3.548</v>
       </c>
       <c r="X3">
-        <v>-17.984000000000002</v>
+        <v>157.495</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>69.084000000000003</v>
+        <v>34.326000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>74.236000000000004</v>
+        <v>27.404</v>
       </c>
       <c r="D4">
-        <v>609.44299999999998</v>
+        <v>254.63499999999999</v>
       </c>
       <c r="E4">
-        <v>404.661</v>
+        <v>136.452</v>
       </c>
       <c r="F4">
-        <v>314.851</v>
+        <v>133.727</v>
       </c>
       <c r="G4">
-        <v>1552.413</v>
+        <v>349.95499999999998</v>
       </c>
       <c r="H4">
-        <v>3656.643</v>
+        <v>1162.8230000000001</v>
       </c>
       <c r="I4">
-        <v>113.87</v>
+        <v>45.063000000000002</v>
       </c>
       <c r="J4">
-        <v>886.79200000000003</v>
+        <v>340.11599999999999</v>
       </c>
       <c r="K4">
-        <v>8.5</v>
+        <v>1.48</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>430.42599999999999</v>
+        <v>183.77799999999999</v>
       </c>
       <c r="O4">
-        <v>1575.41</v>
+        <v>595.79300000000001</v>
       </c>
       <c r="P4">
-        <v>950.73099999999999</v>
+        <v>341.596</v>
       </c>
       <c r="Q4">
-        <v>96.445999999999998</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2081.2330000000002</v>
+        <v>567.03</v>
       </c>
       <c r="U4">
-        <v>671.71</v>
+        <v>16.96</v>
       </c>
       <c r="V4">
-        <v>121.78100000000001</v>
+        <v>24.288</v>
       </c>
       <c r="W4">
-        <v>-7.181</v>
+        <v>-3.5529999999999999</v>
       </c>
       <c r="X4">
-        <v>-19.7</v>
+        <v>67.230999999999995</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>74.236000000000004</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>60.597000000000001</v>
+        <v>25.919</v>
       </c>
       <c r="D5">
-        <v>619.75900000000001</v>
+        <v>253.501</v>
       </c>
       <c r="E5">
-        <v>475.947</v>
+        <v>146.56800000000001</v>
       </c>
       <c r="F5">
-        <v>297.64800000000002</v>
+        <v>132.38499999999999</v>
       </c>
       <c r="G5">
-        <v>1089.605</v>
+        <v>363.73899999999998</v>
       </c>
       <c r="H5">
-        <v>4833.7110000000002</v>
+        <v>1219.171</v>
       </c>
       <c r="I5">
-        <v>133.19999999999999</v>
+        <v>47.515000000000001</v>
       </c>
       <c r="J5">
-        <v>1991.309</v>
+        <v>343.15300000000002</v>
       </c>
       <c r="K5">
-        <v>45.573</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>512.68899999999996</v>
+        <v>209.065</v>
       </c>
       <c r="O5">
-        <v>2943.297</v>
+        <v>623.39</v>
       </c>
       <c r="P5">
-        <v>2077.2440000000001</v>
+        <v>344.202</v>
       </c>
       <c r="Q5">
-        <v>-589.84400000000005</v>
+        <v>-5.0810000000000004</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1890.414</v>
+        <v>595.78099999999995</v>
       </c>
       <c r="U5">
-        <v>81.866</v>
+        <v>11.879</v>
       </c>
       <c r="V5">
-        <v>88.322999999999993</v>
+        <v>46.412999999999997</v>
       </c>
       <c r="W5">
-        <v>-7.2</v>
+        <v>-3.5609999999999999</v>
       </c>
       <c r="X5">
-        <v>1119.634</v>
+        <v>-1.345</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>60.597000000000001</v>
+        <v>25.919</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>40.603000000000002</v>
+        <v>33.847000000000001</v>
       </c>
       <c r="D6">
-        <v>738.01300000000003</v>
+        <v>379.16300000000001</v>
       </c>
       <c r="E6">
-        <v>427.709</v>
+        <v>191.53399999999999</v>
       </c>
       <c r="F6">
-        <v>393.95699999999999</v>
+        <v>172.59399999999999</v>
       </c>
       <c r="G6">
-        <v>1012.903</v>
+        <v>484.24299999999999</v>
       </c>
       <c r="H6">
-        <v>4755.3980000000001</v>
+        <v>1798.1510000000001</v>
       </c>
       <c r="I6">
-        <v>149.11699999999999</v>
+        <v>69.903999999999996</v>
       </c>
       <c r="J6">
-        <v>1677.2</v>
+        <v>723.524</v>
       </c>
       <c r="K6">
-        <v>275.29199999999997</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,120 +1224,120 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>724.07299999999998</v>
+        <v>358.517</v>
       </c>
       <c r="O6">
-        <v>2871.2469999999998</v>
+        <v>1188.1949999999999</v>
       </c>
       <c r="P6">
-        <v>1967.796</v>
+        <v>731.15800000000002</v>
       </c>
       <c r="Q6">
-        <v>-4.7380000000000004</v>
+        <v>21.831</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>11800</v>
+        <v>7500</v>
       </c>
       <c r="T6">
-        <v>1884.1510000000001</v>
+        <v>609.95600000000002</v>
       </c>
       <c r="U6">
-        <v>77.128</v>
+        <v>33.71</v>
       </c>
       <c r="V6">
-        <v>138.637</v>
+        <v>93.108999999999995</v>
       </c>
       <c r="W6">
-        <v>-7.12</v>
+        <v>-3.5659999999999998</v>
       </c>
       <c r="X6">
-        <v>-79.569000000000003</v>
+        <v>401.51900000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>40.603000000000002</v>
+        <v>33.847000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>53.283999999999999</v>
+        <v>33.095999999999997</v>
       </c>
       <c r="D7">
-        <v>716.41300000000001</v>
+        <v>354.86799999999999</v>
       </c>
       <c r="E7">
-        <v>461.35199999999998</v>
+        <v>205.958</v>
       </c>
       <c r="F7">
-        <v>392.75</v>
+        <v>169.37200000000001</v>
       </c>
       <c r="G7">
-        <v>1119.1849999999999</v>
+        <v>490.08100000000002</v>
       </c>
       <c r="H7">
-        <v>5015.0609999999997</v>
+        <v>1816.3050000000001</v>
       </c>
       <c r="I7">
-        <v>163.41900000000001</v>
+        <v>62.593000000000004</v>
       </c>
       <c r="J7">
-        <v>1628.3820000000001</v>
+        <v>726.12900000000002</v>
       </c>
       <c r="K7">
-        <v>288.03699999999998</v>
+        <v>10.664</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-5.1710000000000003</v>
+        <v>-79.569999999999993</v>
       </c>
       <c r="N7">
-        <v>794.48299999999995</v>
+        <v>333.55200000000002</v>
       </c>
       <c r="O7">
-        <v>2968.0859999999998</v>
+        <v>1176.5930000000001</v>
       </c>
       <c r="P7">
-        <v>1987.202</v>
+        <v>736.79300000000001</v>
       </c>
       <c r="Q7">
-        <v>-9.782</v>
+        <v>-13.872999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2046.9749999999999</v>
+        <v>639.71199999999999</v>
       </c>
       <c r="U7">
-        <v>67.346000000000004</v>
+        <v>19.837</v>
       </c>
       <c r="V7">
-        <v>19.952999999999999</v>
+        <v>12.398999999999999</v>
       </c>
       <c r="W7">
-        <v>-7.8470000000000004</v>
+        <v>-3.569</v>
       </c>
       <c r="X7">
-        <v>-12.38</v>
+        <v>15.177</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>53.283999999999999</v>
+        <v>33.095999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>80.765000000000001</v>
+        <v>36.82</v>
       </c>
       <c r="D8">
-        <v>762.99400000000003</v>
+        <v>381.01299999999998</v>
       </c>
       <c r="E8">
-        <v>462.233</v>
+        <v>221.316</v>
       </c>
       <c r="F8">
-        <v>407.46899999999999</v>
+        <v>184.54</v>
       </c>
       <c r="G8">
-        <v>1105.182</v>
+        <v>522.16300000000001</v>
       </c>
       <c r="H8">
-        <v>4870.7560000000003</v>
+        <v>1970.7529999999999</v>
       </c>
       <c r="I8">
-        <v>145.85</v>
+        <v>65.292000000000002</v>
       </c>
       <c r="J8">
-        <v>1587.7670000000001</v>
+        <v>786.17899999999997</v>
       </c>
       <c r="K8">
-        <v>241.80099999999999</v>
+        <v>9.8520000000000003</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>748.20299999999997</v>
+        <v>360.67500000000001</v>
       </c>
       <c r="O8">
-        <v>2881.7570000000001</v>
+        <v>1235.8610000000001</v>
       </c>
       <c r="P8">
-        <v>1912.625</v>
+        <v>796.03099999999995</v>
       </c>
       <c r="Q8">
-        <v>-14.135999999999999</v>
+        <v>-2.1509999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1988.999</v>
+        <v>734.89200000000005</v>
       </c>
       <c r="U8">
-        <v>53.21</v>
+        <v>17.686</v>
       </c>
       <c r="V8">
-        <v>83.441999999999993</v>
+        <v>41.996000000000002</v>
       </c>
       <c r="W8">
-        <v>-7.859</v>
+        <v>-3.5910000000000002</v>
       </c>
       <c r="X8">
-        <v>-55.033999999999999</v>
+        <v>-27.927</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA8">
-        <v>80.763999999999996</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>53.363999999999997</v>
+        <v>35.765999999999998</v>
       </c>
       <c r="D9">
-        <v>695.73400000000004</v>
+        <v>366.03699999999998</v>
       </c>
       <c r="E9">
-        <v>467.29599999999999</v>
+        <v>208.35499999999999</v>
       </c>
       <c r="F9">
-        <v>364.11500000000001</v>
+        <v>178.93199999999999</v>
       </c>
       <c r="G9">
-        <v>1128.9780000000001</v>
+        <v>512.07899999999995</v>
       </c>
       <c r="H9">
-        <v>4977.4219999999996</v>
+        <v>1996.0989999999999</v>
       </c>
       <c r="I9">
-        <v>137.66900000000001</v>
+        <v>62.122</v>
       </c>
       <c r="J9">
-        <v>1338.607</v>
+        <v>772.95899999999995</v>
       </c>
       <c r="K9">
-        <v>411.84</v>
+        <v>7.694</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>940.72</v>
+        <v>374.12599999999998</v>
       </c>
       <c r="O9">
-        <v>2816.5549999999998</v>
+        <v>1240.549</v>
       </c>
       <c r="P9">
-        <v>1838.117</v>
+        <v>780.65300000000002</v>
       </c>
       <c r="Q9">
-        <v>2.8650000000000002</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2160.8670000000002</v>
+        <v>755.55</v>
       </c>
       <c r="U9">
-        <v>56.075000000000003</v>
+        <v>23.895</v>
       </c>
       <c r="V9">
-        <v>98.67</v>
+        <v>46.68</v>
       </c>
       <c r="W9">
-        <v>-7.8550000000000004</v>
+        <v>-3.597</v>
       </c>
       <c r="X9">
-        <v>-78.171000000000006</v>
+        <v>-26.463999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>53.363999999999997</v>
+        <v>35.765999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>126.8</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>753.28800000000001</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>442.41199999999998</v>
+        <v>221.262</v>
       </c>
       <c r="F10">
-        <v>392.053</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1111.096</v>
+        <v>541.00099999999998</v>
       </c>
       <c r="H10">
-        <v>4972.2969999999996</v>
+        <v>2087.0329999999999</v>
       </c>
       <c r="I10">
-        <v>165.29</v>
+        <v>66.625</v>
       </c>
       <c r="J10">
-        <v>1280.845</v>
+        <v>769.82299999999998</v>
       </c>
       <c r="K10">
-        <v>48.085000000000001</v>
+        <v>3.1469999999999998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>927.78</v>
+        <v>297.86500000000001</v>
       </c>
       <c r="O10">
-        <v>2722.8539999999998</v>
+        <v>1249.846</v>
       </c>
       <c r="P10">
-        <v>1717.7539999999999</v>
+        <v>774.37300000000005</v>
       </c>
       <c r="Q10">
-        <v>24.056999999999999</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>11900</v>
+        <v>7800</v>
       </c>
       <c r="T10">
-        <v>2249.4430000000002</v>
+        <v>837.18700000000001</v>
       </c>
       <c r="U10">
-        <v>80.132000000000005</v>
+        <v>25.652000000000001</v>
       </c>
       <c r="V10">
-        <v>167.62</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-7.8639999999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-110.024</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>126.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>71.685000000000002</v>
+        <v>38.267000000000003</v>
       </c>
       <c r="D11">
-        <v>732.08399999999995</v>
+        <v>371.23599999999999</v>
       </c>
       <c r="E11">
-        <v>468.53699999999998</v>
+        <v>228.857</v>
       </c>
       <c r="F11">
-        <v>388.2</v>
+        <v>182.762</v>
       </c>
       <c r="G11">
-        <v>1160.519</v>
+        <v>577.85199999999998</v>
       </c>
       <c r="H11">
-        <v>4902.1279999999997</v>
+        <v>2188.8980000000001</v>
       </c>
       <c r="I11">
-        <v>148.715</v>
+        <v>77.058999999999997</v>
       </c>
       <c r="J11">
-        <v>1295.5119999999999</v>
+        <v>797.62699999999995</v>
       </c>
       <c r="K11">
-        <v>315.43799999999999</v>
+        <v>4.4210000000000003</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.224</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-1.4750000000000001</v>
       </c>
       <c r="N11">
-        <v>826.16499999999996</v>
+        <v>370.87099999999998</v>
       </c>
       <c r="O11">
-        <v>2632.7339999999999</v>
+        <v>1291.05</v>
       </c>
       <c r="P11">
-        <v>1691.769</v>
+        <v>802.048</v>
       </c>
       <c r="Q11">
-        <v>-23.928999999999998</v>
+        <v>20.526</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2269.3939999999998</v>
+        <v>897.84799999999996</v>
       </c>
       <c r="U11">
-        <v>56.203000000000003</v>
+        <v>46.177999999999997</v>
       </c>
       <c r="V11">
-        <v>36.085999999999999</v>
+        <v>43.04</v>
       </c>
       <c r="W11">
-        <v>-7.9089999999999998</v>
+        <v>-3.6059999999999999</v>
       </c>
       <c r="X11">
-        <v>13.603</v>
+        <v>-3.1259999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>71.685000000000002</v>
+        <v>38.267000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>87.227999999999994</v>
+        <v>44.218000000000004</v>
       </c>
       <c r="D12">
-        <v>761.01</v>
+        <v>394.47800000000001</v>
       </c>
       <c r="E12">
-        <v>499.00599999999997</v>
+        <v>243.81299999999999</v>
       </c>
       <c r="F12">
-        <v>414.95600000000002</v>
+        <v>198.07499999999999</v>
       </c>
       <c r="G12">
-        <v>1170.0329999999999</v>
+        <v>637.29499999999996</v>
       </c>
       <c r="H12">
-        <v>4874.683</v>
+        <v>2304.2089999999998</v>
       </c>
       <c r="I12">
-        <v>147.45500000000001</v>
+        <v>79.512</v>
       </c>
       <c r="J12">
-        <v>1189.328</v>
+        <v>824.971</v>
       </c>
       <c r="K12">
-        <v>417.065</v>
+        <v>5.3650000000000002</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>890.61500000000001</v>
+        <v>379.577</v>
       </c>
       <c r="O12">
-        <v>2586.587</v>
+        <v>1324.9069999999999</v>
       </c>
       <c r="P12">
-        <v>1641.0329999999999</v>
+        <v>830.33600000000001</v>
       </c>
       <c r="Q12">
-        <v>0.82399999999999995</v>
+        <v>35.222999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2288.096</v>
+        <v>979.30200000000002</v>
       </c>
       <c r="U12">
-        <v>57.027000000000001</v>
+        <v>81.400999999999996</v>
       </c>
       <c r="V12">
-        <v>95.781999999999996</v>
+        <v>52.499000000000002</v>
       </c>
       <c r="W12">
-        <v>-9.0190000000000001</v>
+        <v>-3.6110000000000002</v>
       </c>
       <c r="X12">
-        <v>-29.039000000000001</v>
+        <v>4.9790000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>87.227999999999994</v>
+        <v>44.218000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>79.849999999999994</v>
+        <v>41.314</v>
       </c>
       <c r="D13">
-        <v>704.01800000000003</v>
+        <v>375.50299999999999</v>
       </c>
       <c r="E13">
-        <v>502.37</v>
+        <v>242.93700000000001</v>
       </c>
       <c r="F13">
-        <v>376.41699999999997</v>
+        <v>183.80099999999999</v>
       </c>
       <c r="G13">
-        <v>1153.145</v>
+        <v>643.81399999999996</v>
       </c>
       <c r="H13">
-        <v>5009.9790000000003</v>
+        <v>2332.4050000000002</v>
       </c>
       <c r="I13">
-        <v>136.94499999999999</v>
+        <v>81.311999999999998</v>
       </c>
       <c r="J13">
-        <v>1226.1479999999999</v>
+        <v>783.39200000000005</v>
       </c>
       <c r="K13">
-        <v>270.94799999999998</v>
+        <v>22.696999999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>777.56100000000004</v>
+        <v>407.70400000000001</v>
       </c>
       <c r="O13">
-        <v>2530.9609999999998</v>
+        <v>1297.443</v>
       </c>
       <c r="P13">
-        <v>1549.9939999999999</v>
+        <v>806.08900000000006</v>
       </c>
       <c r="Q13">
-        <v>-6.3689999999999998</v>
+        <v>9.609</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2479.018</v>
+        <v>1034.962</v>
       </c>
       <c r="U13">
-        <v>50.658000000000001</v>
+        <v>91.01</v>
       </c>
       <c r="V13">
-        <v>126.398</v>
+        <v>71.263999999999996</v>
       </c>
       <c r="W13">
-        <v>-8.9670000000000005</v>
+        <v>-3.629</v>
       </c>
       <c r="X13">
-        <v>-109.214</v>
+        <v>-43.823</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>79.850999999999999</v>
+        <v>41.314</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>74.429000000000002</v>
+        <v>50.384</v>
       </c>
       <c r="D14">
-        <v>753.65800000000002</v>
+        <v>426.77699999999999</v>
       </c>
       <c r="E14">
-        <v>472.80200000000002</v>
+        <v>241.38499999999999</v>
       </c>
       <c r="F14">
-        <v>397.839</v>
+        <v>205.89500000000001</v>
       </c>
       <c r="G14">
-        <v>1143.8019999999999</v>
+        <v>727.452</v>
       </c>
       <c r="H14">
-        <v>5078.0469999999996</v>
+        <v>2445.587</v>
       </c>
       <c r="I14">
-        <v>132.78899999999999</v>
+        <v>86.337999999999994</v>
       </c>
       <c r="J14">
-        <v>1185.2070000000001</v>
+        <v>790.202</v>
       </c>
       <c r="K14">
-        <v>105.206</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>796.40499999999997</v>
+        <v>367.815</v>
       </c>
       <c r="O14">
-        <v>2500.0729999999999</v>
+        <v>1323.1</v>
       </c>
       <c r="P14">
-        <v>1536.394</v>
+        <v>812.17499999999995</v>
       </c>
       <c r="Q14">
-        <v>24.295999999999999</v>
+        <v>72.745000000000005</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>11800</v>
+        <v>7600</v>
       </c>
       <c r="T14">
-        <v>2577.9740000000002</v>
+        <v>1122.4870000000001</v>
       </c>
       <c r="U14">
-        <v>74.953999999999994</v>
+        <v>163.755</v>
       </c>
       <c r="V14">
-        <v>159.58000000000001</v>
+        <v>91.188999999999993</v>
       </c>
       <c r="W14">
-        <v>-8.9789999999999992</v>
+        <v>-4.1529999999999996</v>
       </c>
       <c r="X14">
-        <v>-37.034999999999997</v>
+        <v>-18.803000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>23.506</v>
       </c>
       <c r="AA14">
-        <v>74.429000000000002</v>
+        <v>50.384</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>72.878</v>
+        <v>88.831999999999994</v>
       </c>
       <c r="D15">
-        <v>730.11400000000003</v>
+        <v>414.35899999999998</v>
       </c>
       <c r="E15">
-        <v>496.221</v>
+        <v>248.387</v>
       </c>
       <c r="F15">
-        <v>394.20499999999998</v>
+        <v>203.892</v>
       </c>
       <c r="G15">
-        <v>1202.3230000000001</v>
+        <v>833.64400000000001</v>
       </c>
       <c r="H15">
-        <v>5089.433</v>
+        <v>2515.2829999999999</v>
       </c>
       <c r="I15">
-        <v>141.59100000000001</v>
+        <v>78.275999999999996</v>
       </c>
       <c r="J15">
-        <v>1088.0740000000001</v>
+        <v>787.46699999999998</v>
       </c>
       <c r="K15">
-        <v>403.14499999999998</v>
+        <v>22.763000000000002</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-75.174000000000007</v>
+        <v>-0.57399999999999995</v>
       </c>
       <c r="N15">
-        <v>967.44600000000003</v>
+        <v>322.702</v>
       </c>
       <c r="O15">
-        <v>2564.835</v>
+        <v>1301.355</v>
       </c>
       <c r="P15">
-        <v>1531.883</v>
+        <v>810.23</v>
       </c>
       <c r="Q15">
-        <v>-19.131</v>
+        <v>123.955</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2524.598</v>
+        <v>1213.9280000000001</v>
       </c>
       <c r="U15">
-        <v>55.823</v>
+        <v>287.70999999999998</v>
       </c>
       <c r="V15">
-        <v>64.564999999999998</v>
+        <v>47.341000000000001</v>
       </c>
       <c r="W15">
-        <v>-8.9789999999999992</v>
+        <v>-4.1589999999999998</v>
       </c>
       <c r="X15">
-        <v>-55.476999999999997</v>
+        <v>5.5430000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-1.1439999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>72.878</v>
+        <v>88.831999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>89.992999999999995</v>
+        <v>49.042999999999999</v>
       </c>
       <c r="D16">
-        <v>765.22500000000002</v>
+        <v>424.40800000000002</v>
       </c>
       <c r="E16">
-        <v>503.97199999999998</v>
+        <v>245.43899999999999</v>
       </c>
       <c r="F16">
-        <v>424.46899999999999</v>
+        <v>212.05600000000001</v>
       </c>
       <c r="G16">
-        <v>1231.2739999999999</v>
+        <v>882.59500000000003</v>
       </c>
       <c r="H16">
-        <v>5072.3729999999996</v>
+        <v>2535.1999999999998</v>
       </c>
       <c r="I16">
-        <v>143.56200000000001</v>
+        <v>84.718999999999994</v>
       </c>
       <c r="J16">
-        <v>1083.6030000000001</v>
+        <v>771.34500000000003</v>
       </c>
       <c r="K16">
-        <v>301.29399999999998</v>
+        <v>23.321999999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>896.30899999999997</v>
+        <v>304.95999999999998</v>
       </c>
       <c r="O16">
-        <v>2487.5990000000002</v>
+        <v>1278.432</v>
       </c>
       <c r="P16">
-        <v>1430.194</v>
+        <v>794.66700000000003</v>
       </c>
       <c r="Q16">
-        <v>11.106</v>
+        <v>56.691000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2584.7739999999999</v>
+        <v>1256.768</v>
       </c>
       <c r="U16">
-        <v>66.929000000000002</v>
+        <v>344.40100000000001</v>
       </c>
       <c r="V16">
-        <v>155.68</v>
+        <v>64.161000000000001</v>
       </c>
       <c r="W16">
-        <v>-9.4740000000000002</v>
+        <v>-4.2149999999999999</v>
       </c>
       <c r="X16">
-        <v>-117.968</v>
+        <v>7.3339999999999996</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>89.992999999999995</v>
+        <v>49.042999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>75.228999999999999</v>
+        <v>46.683999999999997</v>
       </c>
       <c r="D17">
-        <v>708.2</v>
+        <v>389.96499999999997</v>
       </c>
       <c r="E17">
-        <v>476.85599999999999</v>
+        <v>241.869</v>
       </c>
       <c r="F17">
-        <v>388.1</v>
+        <v>198.51599999999999</v>
       </c>
       <c r="G17">
-        <v>1257.701</v>
+        <v>954.95799999999997</v>
       </c>
       <c r="H17">
-        <v>4884.0609999999997</v>
+        <v>2618.0369999999998</v>
       </c>
       <c r="I17">
-        <v>128.233</v>
+        <v>73.953000000000003</v>
       </c>
       <c r="J17">
-        <v>1166.425</v>
+        <v>781.96</v>
       </c>
       <c r="K17">
-        <v>115.253</v>
+        <v>22.478000000000002</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>734.56899999999996</v>
+        <v>315.54399999999998</v>
       </c>
       <c r="O17">
-        <v>2387.817</v>
+        <v>1305.223</v>
       </c>
       <c r="P17">
-        <v>1364.335</v>
+        <v>804.43799999999999</v>
       </c>
       <c r="Q17">
-        <v>30.725000000000001</v>
+        <v>62.948999999999998</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2496.2440000000001</v>
+        <v>1312.8140000000001</v>
       </c>
       <c r="U17">
-        <v>97.652000000000001</v>
+        <v>407.35</v>
       </c>
       <c r="V17">
-        <v>147.45500000000001</v>
+        <v>72.998000000000005</v>
       </c>
       <c r="W17">
-        <v>-9.4469999999999992</v>
+        <v>-4.2210000000000001</v>
       </c>
       <c r="X17">
-        <v>-90.855000000000004</v>
+        <v>-4.0129999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>75.3</v>
+        <v>46.683999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>84.8</v>
+        <v>68.605999999999995</v>
       </c>
       <c r="D18">
-        <v>719</v>
+        <v>465.5</v>
       </c>
       <c r="E18">
-        <v>426.6</v>
+        <v>238.87299999999999</v>
       </c>
       <c r="F18">
-        <v>393.1</v>
+        <v>232.054</v>
       </c>
       <c r="G18">
-        <v>1207</v>
+        <v>1056.4090000000001</v>
       </c>
       <c r="H18">
-        <v>4646.5</v>
+        <v>2798.145</v>
       </c>
       <c r="I18">
-        <v>132.6</v>
+        <v>91.575999999999993</v>
       </c>
       <c r="J18">
-        <v>1150.5999999999999</v>
+        <v>779.94</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>652.6</v>
+        <v>404.60700000000003</v>
       </c>
       <c r="O18">
-        <v>2324.3000000000002</v>
+        <v>1353.5719999999999</v>
       </c>
       <c r="P18">
-        <v>1263</v>
+        <v>852.81899999999996</v>
       </c>
       <c r="Q18">
-        <v>53.9</v>
+        <v>-3.8090000000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>11600</v>
+        <v>7700</v>
       </c>
       <c r="T18">
-        <v>2322.1999999999998</v>
+        <v>1444.5730000000001</v>
       </c>
       <c r="U18">
-        <v>151.6</v>
+        <v>403.541</v>
       </c>
       <c r="V18">
-        <v>192.7</v>
+        <v>121.759</v>
       </c>
       <c r="W18">
-        <v>-9.4</v>
+        <v>-3.2280000000000002</v>
       </c>
       <c r="X18">
-        <v>-71.900000000000006</v>
+        <v>-38.598999999999997</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-8.6</v>
+        <v>-94.763999999999996</v>
       </c>
       <c r="AA18">
-        <v>84.8</v>
+        <v>68.605999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>49.048999999999999</v>
       </c>
       <c r="D19">
-        <v>656.3</v>
+        <v>406.97500000000002</v>
       </c>
       <c r="E19">
-        <v>409.86500000000001</v>
+        <v>251.25899999999999</v>
       </c>
       <c r="F19">
-        <v>373.4</v>
+        <v>208.941</v>
       </c>
       <c r="G19">
-        <v>1200.0820000000001</v>
+        <v>1025.692</v>
       </c>
       <c r="H19">
-        <v>4384.83</v>
+        <v>2696.4169999999999</v>
       </c>
       <c r="I19">
-        <v>134.09</v>
+        <v>105.005</v>
       </c>
       <c r="J19">
-        <v>1079.9570000000001</v>
+        <v>700.9</v>
       </c>
       <c r="K19">
-        <v>247.631</v>
+        <v>69.738</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-100.1</v>
+        <v>-47.37</v>
       </c>
       <c r="N19">
-        <v>661.83299999999997</v>
+        <v>393.41800000000001</v>
       </c>
       <c r="O19">
-        <v>2210.578</v>
+        <v>1262.0119999999999</v>
       </c>
       <c r="P19">
-        <v>1328.807</v>
+        <v>770.63800000000003</v>
       </c>
       <c r="Q19">
-        <v>-51</v>
+        <v>-132.864</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2174.252</v>
+        <v>1434.405</v>
       </c>
       <c r="U19">
-        <v>100.619</v>
+        <v>436.702</v>
       </c>
       <c r="V19">
-        <v>65.599999999999994</v>
+        <v>24.968</v>
       </c>
       <c r="W19">
-        <v>-9.5</v>
+        <v>-4.8390000000000004</v>
       </c>
       <c r="X19">
-        <v>-100.5</v>
+        <v>-68.680999999999997</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-68.879000000000005</v>
       </c>
       <c r="AA19">
-        <v>64</v>
+        <v>49.048999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>44.1</v>
+        <v>57.893000000000001</v>
       </c>
       <c r="D20">
-        <v>698</v>
+        <v>444.834</v>
       </c>
       <c r="E20">
-        <v>447.5</v>
+        <v>264.637</v>
       </c>
       <c r="F20">
-        <v>399.7</v>
+        <v>227.28299999999999</v>
       </c>
       <c r="G20">
-        <v>1270.33</v>
+        <v>947.12800000000004</v>
       </c>
       <c r="H20">
-        <v>4496.7560000000003</v>
+        <v>2572.3220000000001</v>
       </c>
       <c r="I20">
-        <v>132.96600000000001</v>
+        <v>87.846999999999994</v>
       </c>
       <c r="J20">
-        <v>1078.598</v>
+        <v>658.077</v>
       </c>
       <c r="K20">
-        <v>35.982999999999997</v>
+        <v>69.284999999999997</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>612.97299999999996</v>
+        <v>373.40899999999999</v>
       </c>
       <c r="O20">
-        <v>2180.4670000000001</v>
+        <v>1204.0119999999999</v>
       </c>
       <c r="P20">
-        <v>1199.5170000000001</v>
+        <v>727.36199999999997</v>
       </c>
       <c r="Q20">
-        <v>-4.0999999999999996</v>
+        <v>-65.075000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2316.2890000000002</v>
+        <v>1368.31</v>
       </c>
       <c r="U20">
-        <v>96.471999999999994</v>
+        <v>365.67500000000001</v>
       </c>
       <c r="V20">
-        <v>145.6</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="W20">
-        <v>-10.1</v>
+        <v>-4.835</v>
       </c>
       <c r="X20">
-        <v>-138</v>
+        <v>-81.881</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-3.8170000000000002</v>
       </c>
       <c r="AA20">
-        <v>44.1</v>
+        <v>57.893000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>84.5</v>
+        <v>-60.805</v>
       </c>
       <c r="D21">
-        <v>648.9</v>
+        <v>415.964</v>
       </c>
       <c r="E21">
-        <v>429.8</v>
+        <v>259.92</v>
       </c>
       <c r="F21">
-        <v>369.5</v>
+        <v>209.00200000000001</v>
       </c>
       <c r="G21">
-        <v>1208.0999999999999</v>
+        <v>986.99400000000003</v>
       </c>
       <c r="H21">
-        <v>4402.2</v>
+        <v>2465.8180000000002</v>
       </c>
       <c r="I21">
-        <v>137.5</v>
+        <v>78.828999999999994</v>
       </c>
       <c r="J21">
-        <v>702</v>
+        <v>684.601</v>
       </c>
       <c r="K21">
-        <v>453.2</v>
+        <v>66.275999999999996</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>933.4</v>
+        <v>363.88799999999998</v>
       </c>
       <c r="O21">
-        <v>2120.6999999999998</v>
+        <v>1209.4090000000001</v>
       </c>
       <c r="P21">
-        <v>1156.5999999999999</v>
+        <v>750.87699999999995</v>
       </c>
       <c r="Q21">
-        <v>139.9</v>
+        <v>21.946000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2281.5</v>
+        <v>1256.4090000000001</v>
       </c>
       <c r="U21">
-        <v>236.4</v>
+        <v>398.58100000000002</v>
       </c>
       <c r="V21">
-        <v>159.80000000000001</v>
+        <v>66.688000000000002</v>
       </c>
       <c r="W21">
-        <v>-10.3</v>
+        <v>-4.7629999999999999</v>
       </c>
       <c r="X21">
-        <v>-55.5</v>
+        <v>-20.001000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>47.7</v>
+        <v>-10.861000000000001</v>
       </c>
       <c r="AA21">
-        <v>84.5</v>
+        <v>-60.805</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>58.6</v>
+        <v>-0.72399999999999998</v>
       </c>
       <c r="D22">
-        <v>671.1</v>
+        <v>447.36200000000002</v>
       </c>
       <c r="E22">
-        <v>399.9</v>
+        <v>254.822</v>
       </c>
       <c r="F22">
-        <v>382.1</v>
+        <v>223.792</v>
       </c>
       <c r="G22">
-        <v>1196.7</v>
+        <v>1033.088</v>
       </c>
       <c r="H22">
-        <v>4402.8999999999996</v>
+        <v>2410.373</v>
       </c>
       <c r="I22">
-        <v>133.6</v>
+        <v>82.316999999999993</v>
       </c>
       <c r="J22">
-        <v>1141.2</v>
+        <v>270.10399999999998</v>
       </c>
       <c r="K22">
-        <v>2.9</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>476</v>
+        <v>744.27800000000002</v>
       </c>
       <c r="O22">
-        <v>2063.5</v>
+        <v>1163.5889999999999</v>
       </c>
       <c r="P22">
-        <v>1154.3</v>
+        <v>682.31600000000003</v>
       </c>
       <c r="Q22">
-        <v>48.2</v>
+        <v>206.43600000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>11400</v>
+        <v>8000</v>
       </c>
       <c r="T22">
-        <v>2339.4</v>
+        <v>1246.7840000000001</v>
       </c>
       <c r="U22">
-        <v>284.60000000000002</v>
+        <v>433.98399999999998</v>
       </c>
       <c r="V22">
-        <v>126.4</v>
+        <v>100.953</v>
       </c>
       <c r="W22">
-        <v>-10.1</v>
+        <v>-4.7039999999999997</v>
       </c>
       <c r="X22">
-        <v>-8.9</v>
+        <v>-41.808</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>176.27500000000001</v>
       </c>
       <c r="AA22">
-        <v>58.6</v>
+        <v>-0.72399999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>125</v>
+        <v>50.003999999999998</v>
       </c>
       <c r="D23">
-        <v>772.6</v>
+        <v>430.99599999999998</v>
       </c>
       <c r="E23">
-        <v>625.20000000000005</v>
+        <v>275.10599999999999</v>
       </c>
       <c r="F23">
-        <v>418.9</v>
+        <v>220.136</v>
       </c>
       <c r="G23">
-        <v>1805.5</v>
+        <v>1064.126</v>
       </c>
       <c r="H23">
-        <v>11682.4</v>
+        <v>2442.154</v>
       </c>
       <c r="I23">
-        <v>287.39999999999998</v>
+        <v>88.408000000000001</v>
       </c>
       <c r="J23">
-        <v>1170.0999999999999</v>
+        <v>186.86099999999999</v>
       </c>
       <c r="K23">
-        <v>0.9</v>
+        <v>477.78699999999998</v>
       </c>
       <c r="L23">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-127.5</v>
+        <v>-34.503</v>
       </c>
       <c r="N23">
-        <v>854.2</v>
+        <v>778.26700000000005</v>
       </c>
       <c r="O23">
-        <v>3297</v>
+        <v>1132.4949999999999</v>
       </c>
       <c r="P23">
-        <v>1181.9000000000001</v>
+        <v>664.64800000000002</v>
       </c>
       <c r="Q23">
-        <v>38.5</v>
+        <v>-173.38900000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>8385.4</v>
+        <v>1309.6590000000001</v>
       </c>
       <c r="U23">
-        <v>323.10000000000002</v>
+        <v>260.59500000000003</v>
       </c>
       <c r="V23">
-        <v>0.7</v>
+        <v>11.379</v>
       </c>
       <c r="W23">
-        <v>-10.1</v>
+        <v>-5.52</v>
       </c>
       <c r="X23">
-        <v>-472.8</v>
+        <v>-26.776</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-150.17099999999999</v>
       </c>
       <c r="AA23">
-        <v>125</v>
+        <v>50.003999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>105.4</v>
+        <v>59.316000000000003</v>
       </c>
       <c r="D24">
-        <v>1022</v>
+        <v>472.44400000000002</v>
       </c>
       <c r="E24">
-        <v>637.20000000000005</v>
+        <v>299.048</v>
       </c>
       <c r="F24">
-        <v>526.9</v>
+        <v>242.154</v>
       </c>
       <c r="G24">
-        <v>1738.4</v>
+        <v>1159.0719999999999</v>
       </c>
       <c r="H24">
-        <v>11451.4</v>
+        <v>2566.7130000000002</v>
       </c>
       <c r="I24">
-        <v>227.1</v>
+        <v>76.665000000000006</v>
       </c>
       <c r="J24">
-        <v>1173</v>
+        <v>413.30700000000002</v>
       </c>
       <c r="K24">
-        <v>0.1</v>
+        <v>388.71699999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>722.5</v>
+        <v>716.17600000000004</v>
       </c>
       <c r="O24">
-        <v>3135.8</v>
+        <v>1316.1030000000001</v>
       </c>
       <c r="P24">
-        <v>1183.3</v>
+        <v>802.024</v>
       </c>
       <c r="Q24">
-        <v>-11.5</v>
+        <v>22.102</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8315.6</v>
+        <v>1250.6099999999999</v>
       </c>
       <c r="U24">
-        <v>311.60000000000002</v>
+        <v>282.697</v>
       </c>
       <c r="V24">
-        <v>187.4</v>
+        <v>81.289000000000001</v>
       </c>
       <c r="W24">
-        <v>-18.5</v>
+        <v>-5.5419999999999998</v>
       </c>
       <c r="X24">
-        <v>-177.8</v>
+        <v>-27.016999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-35.155999999999999</v>
       </c>
       <c r="AA24">
-        <v>105.4</v>
+        <v>59.316000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>92.5</v>
+        <v>49.448999999999998</v>
       </c>
       <c r="D25">
-        <v>954.2</v>
+        <v>435.72500000000002</v>
       </c>
       <c r="E25">
-        <v>672.1</v>
+        <v>296.06599999999997</v>
       </c>
       <c r="F25">
-        <v>513.6</v>
+        <v>225.911</v>
       </c>
       <c r="G25">
-        <v>1841.6</v>
+        <v>1137.0070000000001</v>
       </c>
       <c r="H25">
-        <v>11952.4</v>
+        <v>2566.9349999999999</v>
       </c>
       <c r="I25">
-        <v>224</v>
+        <v>74.62</v>
       </c>
       <c r="J25">
-        <v>1570.8</v>
+        <v>329.202</v>
       </c>
       <c r="K25">
-        <v>6.5</v>
+        <v>443.113</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>770.2</v>
+        <v>763.36199999999997</v>
       </c>
       <c r="O25">
-        <v>3595.3</v>
+        <v>1281.078</v>
       </c>
       <c r="P25">
-        <v>1587.5</v>
+        <v>772.31500000000005</v>
       </c>
       <c r="Q25">
-        <v>19.100000000000001</v>
+        <v>49.128</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>8357.1</v>
+        <v>1285.857</v>
       </c>
       <c r="U25">
-        <v>330.7</v>
+        <v>331.82499999999999</v>
       </c>
       <c r="V25">
-        <v>152.9</v>
+        <v>66.787000000000006</v>
       </c>
       <c r="W25">
-        <v>-18.100000000000001</v>
+        <v>-5.4130000000000003</v>
       </c>
       <c r="X25">
-        <v>237.1</v>
+        <v>-39.280999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>59.887999999999998</v>
       </c>
       <c r="AA25">
-        <v>92.5</v>
+        <v>49.448999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>107</v>
+        <v>64.948999999999998</v>
       </c>
       <c r="D26">
-        <v>996.5</v>
+        <v>471.33100000000002</v>
       </c>
       <c r="E26">
-        <v>636</v>
+        <v>290.791</v>
       </c>
       <c r="F26">
-        <v>541.5</v>
+        <v>240.81</v>
       </c>
       <c r="G26">
-        <v>1743.5</v>
+        <v>718.19100000000003</v>
       </c>
       <c r="H26">
-        <v>11555.8</v>
+        <v>2181.35</v>
       </c>
       <c r="I26">
-        <v>223</v>
+        <v>79.950999999999993</v>
       </c>
       <c r="J26">
-        <v>1511.4</v>
+        <v>367.161</v>
       </c>
       <c r="K26">
-        <v>10.1</v>
+        <v>2.774</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>767.6</v>
+        <v>311.43400000000003</v>
       </c>
       <c r="O26">
-        <v>3429.9</v>
+        <v>907.29300000000001</v>
       </c>
       <c r="P26">
-        <v>1532.7</v>
+        <v>370.15600000000001</v>
       </c>
       <c r="Q26">
-        <v>53.2</v>
+        <v>-266.76100000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>15700</v>
+        <v>8500</v>
       </c>
       <c r="T26">
-        <v>8125.9</v>
+        <v>1274.057</v>
       </c>
       <c r="U26">
-        <v>383.9</v>
+        <v>65.063999999999993</v>
       </c>
       <c r="V26">
-        <v>222.4</v>
+        <v>112.4</v>
       </c>
       <c r="W26">
-        <v>-17.899999999999999</v>
+        <v>-5.3879999999999999</v>
       </c>
       <c r="X26">
-        <v>-112.7</v>
+        <v>-519.495</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-6.8</v>
+        <v>125.66500000000001</v>
       </c>
       <c r="AA26">
-        <v>107</v>
+        <v>64.948999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>59.8</v>
+        <v>58.472000000000001</v>
       </c>
       <c r="D27">
-        <v>900.5</v>
+        <v>472.86399999999998</v>
       </c>
       <c r="E27">
-        <v>598.6</v>
+        <v>311.005</v>
       </c>
       <c r="F27">
-        <v>492</v>
+        <v>246.27799999999999</v>
       </c>
       <c r="G27">
-        <v>1720.6</v>
+        <v>816.40099999999995</v>
       </c>
       <c r="H27">
-        <v>11594</v>
+        <v>2294.7579999999998</v>
       </c>
       <c r="I27">
-        <v>258.39999999999998</v>
+        <v>85.031000000000006</v>
       </c>
       <c r="J27">
-        <v>1528.3</v>
+        <v>413.35500000000002</v>
       </c>
       <c r="K27">
-        <v>11.6</v>
+        <v>9.7590000000000003</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-5.4</v>
+        <v>-105.36199999999999</v>
       </c>
       <c r="N27">
-        <v>747.5</v>
+        <v>264.98</v>
       </c>
       <c r="O27">
-        <v>3430.4</v>
+        <v>956.49400000000003</v>
       </c>
       <c r="P27">
-        <v>1551.2</v>
+        <v>423.11399999999998</v>
       </c>
       <c r="Q27">
-        <v>-20.6</v>
+        <v>39.014000000000003</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>8163.6</v>
+        <v>1338.2639999999999</v>
       </c>
       <c r="U27">
-        <v>363.3</v>
+        <v>104.078</v>
       </c>
       <c r="V27">
-        <v>82.5</v>
+        <v>41.825000000000003</v>
       </c>
       <c r="W27">
-        <v>-18</v>
+        <v>-6.9020000000000001</v>
       </c>
       <c r="X27">
-        <v>-67.599999999999994</v>
+        <v>46.685000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-0.1</v>
+        <v>-32.337000000000003</v>
       </c>
       <c r="AA27">
-        <v>59.8</v>
+        <v>58.472000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-1050</v>
+        <v>65.433000000000007</v>
       </c>
       <c r="D28">
-        <v>992.7</v>
+        <v>507.36200000000002</v>
       </c>
       <c r="E28">
-        <v>664.2</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="F28">
-        <v>544.20000000000005</v>
+        <v>268.78399999999999</v>
       </c>
       <c r="G28">
-        <v>1765.7</v>
+        <v>869.745</v>
       </c>
       <c r="H28">
-        <v>10850</v>
+        <v>2388.5700000000002</v>
       </c>
       <c r="I28">
-        <v>245.6</v>
+        <v>87.031000000000006</v>
       </c>
       <c r="J28">
-        <v>1587.5</v>
+        <v>397.12400000000002</v>
       </c>
       <c r="K28">
-        <v>11.6</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>753.7</v>
+        <v>291.07499999999999</v>
       </c>
       <c r="O28">
-        <v>3575.8</v>
+        <v>989.83500000000004</v>
       </c>
       <c r="P28">
-        <v>1609.3</v>
+        <v>402.22800000000001</v>
       </c>
       <c r="Q28">
-        <v>-94.9</v>
+        <v>-34.645000000000003</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7274.2</v>
+        <v>1398.7349999999999</v>
       </c>
       <c r="U28">
-        <v>268.39999999999998</v>
+        <v>69.433000000000007</v>
       </c>
       <c r="V28">
-        <v>126.2</v>
+        <v>113.249</v>
       </c>
       <c r="W28">
-        <v>-20.100000000000001</v>
+        <v>-6.0739999999999998</v>
       </c>
       <c r="X28">
-        <v>-78.900000000000006</v>
+        <v>-39.889000000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-2.2000000000000002</v>
+        <v>-76.828999999999994</v>
       </c>
       <c r="AA28">
-        <v>-1050</v>
+        <v>65.433000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>90.6</v>
+        <v>65.718999999999994</v>
       </c>
       <c r="D29">
-        <v>1009.2</v>
+        <v>488.10300000000001</v>
       </c>
       <c r="E29">
-        <v>734.4</v>
+        <v>326.012</v>
       </c>
       <c r="F29">
-        <v>559</v>
+        <v>252.99</v>
       </c>
       <c r="G29">
-        <v>1972.4</v>
+        <v>973.93600000000004</v>
       </c>
       <c r="H29">
-        <v>11199</v>
+        <v>2614.9169999999999</v>
       </c>
       <c r="I29">
-        <v>249</v>
+        <v>87.153999999999996</v>
       </c>
       <c r="J29">
-        <v>1600.9</v>
+        <v>495.66800000000001</v>
       </c>
       <c r="K29">
-        <v>12.3</v>
+        <v>7.02</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>848.4</v>
+        <v>322.41800000000001</v>
       </c>
       <c r="O29">
-        <v>3709.2</v>
+        <v>1161.002</v>
       </c>
       <c r="P29">
-        <v>1622.6</v>
+        <v>502.68799999999999</v>
       </c>
       <c r="Q29">
-        <v>101.6</v>
+        <v>72.388000000000005</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>7489.8</v>
+        <v>1453.915</v>
       </c>
       <c r="U29">
-        <v>370</v>
+        <v>141.821</v>
       </c>
       <c r="V29">
-        <v>164.3</v>
+        <v>101.822</v>
       </c>
       <c r="W29">
-        <v>-20.100000000000001</v>
+        <v>-6.0949999999999998</v>
       </c>
       <c r="X29">
-        <v>-22.1</v>
+        <v>54.148000000000003</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-3.536</v>
       </c>
       <c r="AA29">
-        <v>90.6</v>
+        <v>65.718999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-650.4</v>
+        <v>70.03</v>
       </c>
       <c r="D30">
-        <v>1091</v>
+        <v>541.50400000000002</v>
       </c>
       <c r="E30">
-        <v>746.2</v>
+        <v>307.62200000000001</v>
       </c>
       <c r="F30">
-        <v>593.29999999999995</v>
+        <v>272.73099999999999</v>
       </c>
       <c r="G30">
-        <v>2002.5</v>
+        <v>982.02200000000005</v>
       </c>
       <c r="H30">
-        <v>10374.5</v>
+        <v>2675.569</v>
       </c>
       <c r="I30">
-        <v>284.39999999999998</v>
+        <v>82.320999999999998</v>
       </c>
       <c r="J30">
-        <v>1611.7</v>
+        <v>482.06299999999999</v>
       </c>
       <c r="K30">
-        <v>20.9</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>954.5</v>
+        <v>312.411</v>
       </c>
       <c r="O30">
-        <v>3746.6</v>
+        <v>1159.1669999999999</v>
       </c>
       <c r="P30">
-        <v>1642.1</v>
+        <v>483.30700000000002</v>
       </c>
       <c r="Q30">
-        <v>-49.4</v>
+        <v>27.562999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>16100</v>
+        <v>8900</v>
       </c>
       <c r="T30">
-        <v>6627.9</v>
+        <v>1516.402</v>
       </c>
       <c r="U30">
-        <v>320.60000000000002</v>
+        <v>169.38399999999999</v>
       </c>
       <c r="V30">
-        <v>228.9</v>
+        <v>130.80099999999999</v>
       </c>
       <c r="W30">
-        <v>-20.100000000000001</v>
+        <v>-6.0629999999999997</v>
       </c>
       <c r="X30">
-        <v>-232.2</v>
+        <v>-57.737000000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-0.2</v>
+        <v>-25.696000000000002</v>
       </c>
       <c r="AA30">
-        <v>-650.4</v>
+        <v>70.03</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>81.2</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="D31">
-        <v>956.1</v>
+        <v>560.78200000000004</v>
       </c>
       <c r="E31">
-        <v>670.4</v>
+        <v>356.62900000000002</v>
       </c>
       <c r="F31">
-        <v>514.1</v>
+        <v>285.24299999999999</v>
       </c>
       <c r="G31">
-        <v>2000.5</v>
+        <v>1093.3309999999999</v>
       </c>
       <c r="H31">
-        <v>10372.799999999999</v>
+        <v>2915.0050000000001</v>
       </c>
       <c r="I31">
-        <v>286.8</v>
+        <v>93.641999999999996</v>
       </c>
       <c r="J31">
-        <v>1645.6</v>
+        <v>586.81100000000004</v>
       </c>
       <c r="K31">
-        <v>13.5</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="L31">
-        <v>-7.8</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>895.4</v>
+        <v>297.04000000000002</v>
       </c>
       <c r="O31">
-        <v>3667.6</v>
+        <v>1394.76</v>
       </c>
       <c r="P31">
-        <v>1668.5</v>
+        <v>592.63400000000001</v>
       </c>
       <c r="Q31">
-        <v>-3.5</v>
+        <v>-78.724000000000004</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6705.2</v>
+        <v>1520.2449999999999</v>
       </c>
       <c r="U31">
-        <v>317.10000000000002</v>
+        <v>90.66</v>
       </c>
       <c r="V31">
-        <v>55.1</v>
+        <v>30.170999999999999</v>
       </c>
       <c r="W31">
-        <v>-19.8</v>
+        <v>-6.8029999999999999</v>
       </c>
       <c r="X31">
-        <v>-19.399999999999999</v>
+        <v>-7.7809999999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-90.641000000000005</v>
       </c>
       <c r="AA31">
-        <v>81.2</v>
+        <v>68.180000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-1122</v>
+        <v>78.647999999999996</v>
       </c>
       <c r="D32">
-        <v>1042.0999999999999</v>
+        <v>594.84699999999998</v>
       </c>
       <c r="E32">
-        <v>710.3</v>
+        <v>371.48899999999998</v>
       </c>
       <c r="F32">
-        <v>552.79999999999995</v>
+        <v>315.48599999999999</v>
       </c>
       <c r="G32">
-        <v>1892.4</v>
+        <v>1182.087</v>
       </c>
       <c r="H32">
-        <v>8822</v>
+        <v>2993.2080000000001</v>
       </c>
       <c r="I32">
-        <v>292.39999999999998</v>
+        <v>94.412999999999997</v>
       </c>
       <c r="J32">
-        <v>1586.6</v>
+        <v>576.649</v>
       </c>
       <c r="K32">
-        <v>209.3</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1117.7</v>
+        <v>325.56099999999998</v>
       </c>
       <c r="O32">
-        <v>3681.9</v>
+        <v>1383.681</v>
       </c>
       <c r="P32">
-        <v>1805</v>
+        <v>581.50300000000004</v>
       </c>
       <c r="Q32">
-        <v>-77.8</v>
+        <v>22.794</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5140.1000000000004</v>
+        <v>1609.527</v>
       </c>
       <c r="U32">
-        <v>239.3</v>
+        <v>113.45399999999999</v>
       </c>
       <c r="V32">
-        <v>116.9</v>
+        <v>108.854</v>
       </c>
       <c r="W32">
-        <v>-19.899999999999999</v>
+        <v>-6.7140000000000004</v>
       </c>
       <c r="X32">
-        <v>-69.400000000000006</v>
+        <v>-12.167</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>54.1</v>
+        <v>-56.780999999999999</v>
       </c>
       <c r="AA32">
-        <v>-1122</v>
+        <v>78.647999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>66.046000000000006</v>
       </c>
       <c r="D33">
-        <v>928.4</v>
+        <v>529.95299999999997</v>
       </c>
       <c r="E33">
-        <v>702</v>
+        <v>345.47699999999998</v>
       </c>
       <c r="F33">
-        <v>476.1</v>
+        <v>280.18299999999999</v>
       </c>
       <c r="G33">
-        <v>1902.8</v>
+        <v>972.096</v>
       </c>
       <c r="H33">
-        <v>8769.2000000000007</v>
+        <v>2661.3110000000001</v>
       </c>
       <c r="I33">
-        <v>287.8</v>
+        <v>90.781999999999996</v>
       </c>
       <c r="J33">
-        <v>1574.8</v>
+        <v>401.685</v>
       </c>
       <c r="K33">
-        <v>145.80000000000001</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1080.0999999999999</v>
+        <v>338.04700000000003</v>
       </c>
       <c r="O33">
-        <v>3614.9</v>
+        <v>1074.537</v>
       </c>
       <c r="P33">
-        <v>1729.6</v>
+        <v>404.51299999999998</v>
       </c>
       <c r="Q33">
-        <v>-6.2</v>
+        <v>-59.249000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5154.3</v>
+        <v>1586.7739999999999</v>
       </c>
       <c r="U33">
-        <v>233.1</v>
+        <v>54.204999999999998</v>
       </c>
       <c r="V33">
-        <v>125.6</v>
+        <v>97.817999999999998</v>
       </c>
       <c r="W33">
-        <v>-19.399999999999999</v>
+        <v>-6.7140000000000004</v>
       </c>
       <c r="X33">
-        <v>-82.4</v>
+        <v>-171.16900000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-0.1</v>
+        <v>94.944999999999993</v>
       </c>
       <c r="AA33">
-        <v>28</v>
+        <v>66.046999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1.8</v>
+        <v>70.995000000000005</v>
       </c>
       <c r="D34">
-        <v>1059.7</v>
+        <v>508.14100000000002</v>
       </c>
       <c r="E34">
-        <v>701.9</v>
+        <v>319.26</v>
       </c>
       <c r="F34">
-        <v>524.79999999999995</v>
+        <v>271.03199999999998</v>
       </c>
       <c r="G34">
-        <v>1888</v>
+        <v>949.86199999999997</v>
       </c>
       <c r="H34">
-        <v>8687</v>
+        <v>2830.4</v>
       </c>
       <c r="I34">
-        <v>283.89999999999998</v>
+        <v>104.32899999999999</v>
       </c>
       <c r="J34">
-        <v>1564.9</v>
+        <v>423.67899999999997</v>
       </c>
       <c r="K34">
-        <v>81.8</v>
+        <v>21.815000000000001</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1013.3</v>
+        <v>359.96199999999999</v>
       </c>
       <c r="O34">
-        <v>3554</v>
+        <v>1170.9870000000001</v>
       </c>
       <c r="P34">
-        <v>1657.5</v>
+        <v>449.47399999999999</v>
       </c>
       <c r="Q34">
-        <v>76.5</v>
+        <v>149.786</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>16400</v>
+        <v>9400</v>
       </c>
       <c r="T34">
-        <v>5133</v>
+        <v>1659.413</v>
       </c>
       <c r="U34">
-        <v>309.60000000000002</v>
+        <v>203.99100000000001</v>
       </c>
       <c r="V34">
-        <v>202.2</v>
+        <v>99.138000000000005</v>
       </c>
       <c r="W34">
-        <v>-19.5</v>
+        <v>-6.7210000000000001</v>
       </c>
       <c r="X34">
-        <v>-78.599999999999994</v>
+        <v>-37.969000000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-3.6</v>
+        <v>200.29400000000001</v>
       </c>
       <c r="AA34">
-        <v>1.8</v>
+        <v>70.995000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>39.200000000000003</v>
+        <v>61.743000000000002</v>
       </c>
       <c r="D35">
-        <v>946.2</v>
+        <v>506.94900000000001</v>
       </c>
       <c r="E35">
-        <v>658.5</v>
+        <v>327.51400000000001</v>
       </c>
       <c r="F35">
-        <v>499.7</v>
+        <v>265.73200000000003</v>
       </c>
       <c r="G35">
-        <v>1795.6</v>
+        <v>984.88900000000001</v>
       </c>
       <c r="H35">
-        <v>8604.5</v>
+        <v>2760.7890000000002</v>
       </c>
       <c r="I35">
-        <v>269</v>
+        <v>98.313000000000002</v>
       </c>
       <c r="J35">
-        <v>1543.6</v>
+        <v>460.84199999999998</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>25.617000000000001</v>
       </c>
       <c r="L35">
-        <v>-67.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1.9</v>
+        <v>-53.506999999999998</v>
       </c>
       <c r="N35">
-        <v>870.6</v>
+        <v>343.70699999999999</v>
       </c>
       <c r="O35">
-        <v>3495</v>
+        <v>1081.192</v>
       </c>
       <c r="P35">
-        <v>1733.2</v>
+        <v>486.459</v>
       </c>
       <c r="Q35">
-        <v>-84.2</v>
+        <v>22.308</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5109.5</v>
+        <v>1679.597</v>
       </c>
       <c r="U35">
-        <v>225.4</v>
+        <v>226.29900000000001</v>
       </c>
       <c r="V35">
-        <v>29.3</v>
+        <v>10.638999999999999</v>
       </c>
       <c r="W35">
-        <v>-19.5</v>
+        <v>-7.46</v>
       </c>
       <c r="X35">
-        <v>-99.2</v>
+        <v>46.265999999999998</v>
       </c>
       <c r="Y35">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-0.8</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AA35">
-        <v>39.200000000000003</v>
+        <v>61.743000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>36.4</v>
+        <v>70.198999999999998</v>
       </c>
       <c r="D36">
-        <v>1009.4</v>
+        <v>552.83199999999999</v>
       </c>
       <c r="E36">
-        <v>700.1</v>
+        <v>357.54599999999999</v>
       </c>
       <c r="F36">
-        <v>540.79999999999995</v>
+        <v>286.66800000000001</v>
       </c>
       <c r="G36">
-        <v>1828.3</v>
+        <v>1032.5050000000001</v>
       </c>
       <c r="H36">
-        <v>8575.2999999999993</v>
+        <v>2898.4789999999998</v>
       </c>
       <c r="I36">
-        <v>248.1</v>
+        <v>93.42</v>
       </c>
       <c r="J36">
-        <v>1439.9</v>
+        <v>145.94900000000001</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>273.90600000000001</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>880.8</v>
+        <v>590.49300000000005</v>
       </c>
       <c r="O36">
-        <v>3392.4</v>
+        <v>1094.357</v>
       </c>
       <c r="P36">
-        <v>1656.6</v>
+        <v>444.43900000000002</v>
       </c>
       <c r="Q36">
-        <v>24.7</v>
+        <v>25.571999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5182.8999999999996</v>
+        <v>1804.1220000000001</v>
       </c>
       <c r="U36">
-        <v>250.1</v>
+        <v>251.87100000000001</v>
       </c>
       <c r="V36">
-        <v>145.1</v>
+        <v>104.72</v>
       </c>
       <c r="W36">
-        <v>-19.600000000000001</v>
+        <v>-7.4589999999999996</v>
       </c>
       <c r="X36">
-        <v>-110.3</v>
+        <v>-81.908000000000001</v>
       </c>
       <c r="Y36">
-        <v>120.7</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.5</v>
+        <v>0.156</v>
       </c>
       <c r="AA36">
-        <v>36.4</v>
+        <v>70.198999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>85</v>
+        <v>67.481999999999999</v>
       </c>
       <c r="D37">
-        <v>962.1</v>
+        <v>531.20299999999997</v>
       </c>
       <c r="E37">
-        <v>698.4</v>
+        <v>356.976</v>
       </c>
       <c r="F37">
-        <v>517.6</v>
+        <v>271.73</v>
       </c>
       <c r="G37">
-        <v>1811.3</v>
+        <v>1127.1030000000001</v>
       </c>
       <c r="H37">
-        <v>8366.7999999999993</v>
+        <v>3067.1089999999999</v>
       </c>
       <c r="I37">
-        <v>246.3</v>
+        <v>98.125</v>
       </c>
       <c r="J37">
-        <v>1402.6</v>
+        <v>321.70100000000002</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>240.36600000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>868.9</v>
+        <v>603.65200000000004</v>
       </c>
       <c r="O37">
-        <v>3307.7</v>
+        <v>1164.6579999999999</v>
       </c>
       <c r="P37">
-        <v>1575.7</v>
+        <v>593.47</v>
       </c>
       <c r="Q37">
-        <v>-24</v>
+        <v>81.497</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5059.1000000000004</v>
+        <v>1902.451</v>
       </c>
       <c r="U37">
-        <v>226.1</v>
+        <v>333.36799999999999</v>
       </c>
       <c r="V37">
-        <v>159.1</v>
+        <v>130.005</v>
       </c>
       <c r="W37">
-        <v>-19.600000000000001</v>
+        <v>-7.4640000000000004</v>
       </c>
       <c r="X37">
-        <v>-160.80000000000001</v>
+        <v>-54.253999999999998</v>
       </c>
       <c r="Y37">
-        <v>119.8</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0.4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA37">
-        <v>85</v>
+        <v>67.483000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>102.4</v>
+        <v>74.834000000000003</v>
       </c>
       <c r="D38">
-        <v>1111.3</v>
+        <v>568.39400000000001</v>
       </c>
       <c r="E38">
-        <v>782</v>
+        <v>348.68400000000003</v>
       </c>
       <c r="F38">
-        <v>611.20000000000005</v>
+        <v>283.233</v>
       </c>
       <c r="G38">
-        <v>2000</v>
+        <v>1217.796</v>
       </c>
       <c r="H38">
-        <v>8603</v>
+        <v>3087.9319999999998</v>
       </c>
       <c r="I38">
-        <v>308</v>
+        <v>100.84699999999999</v>
       </c>
       <c r="J38">
-        <v>1443</v>
+        <v>515.01800000000003</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>15.593999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>995</v>
+        <v>444.55599999999998</v>
       </c>
       <c r="O38">
-        <v>3508</v>
+        <v>1180.9739999999999</v>
       </c>
       <c r="P38">
-        <v>1610</v>
+        <v>655.73299999999995</v>
       </c>
       <c r="Q38">
-        <v>178.5</v>
+        <v>116.98</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>15200</v>
+        <v>9300</v>
       </c>
       <c r="T38">
-        <v>5095</v>
+        <v>1906.9580000000001</v>
       </c>
       <c r="U38">
-        <v>405</v>
+        <v>450.34800000000001</v>
       </c>
       <c r="V38">
-        <v>299.5</v>
+        <v>117.125</v>
       </c>
       <c r="W38">
-        <v>-22.3</v>
+        <v>-7.4530000000000003</v>
       </c>
       <c r="X38">
-        <v>-95.7</v>
+        <v>18.475999999999999</v>
       </c>
       <c r="Y38">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.9</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA38">
-        <v>102.4</v>
+        <v>74.834000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-139.9</v>
+        <v>61.843000000000004</v>
       </c>
       <c r="D39">
-        <v>874.3</v>
+        <v>545.94399999999996</v>
       </c>
       <c r="E39">
-        <v>709.1</v>
+        <v>355.03</v>
       </c>
       <c r="F39">
-        <v>467.8</v>
+        <v>282.03800000000001</v>
       </c>
       <c r="G39">
-        <v>1805.2</v>
+        <v>1178.454</v>
       </c>
       <c r="H39">
-        <v>8058.4</v>
+        <v>2986.7469999999998</v>
       </c>
       <c r="I39">
-        <v>271.10000000000002</v>
+        <v>108.11799999999999</v>
       </c>
       <c r="J39">
-        <v>1449.6</v>
+        <v>561.46699999999998</v>
       </c>
       <c r="K39">
-        <v>0.1</v>
+        <v>18.946000000000002</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-2.1240000000000001</v>
       </c>
       <c r="M39">
-        <v>-0.8</v>
+        <v>-299.21499999999997</v>
       </c>
       <c r="N39">
-        <v>891.5</v>
+        <v>327.435</v>
       </c>
       <c r="O39">
-        <v>3368.2</v>
+        <v>1104.1289999999999</v>
       </c>
       <c r="P39">
-        <v>1590.9</v>
+        <v>604.50400000000002</v>
       </c>
       <c r="Q39">
-        <v>-169</v>
+        <v>-45.331000000000003</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4690.2</v>
+        <v>1882.6179999999999</v>
       </c>
       <c r="U39">
-        <v>235.9</v>
+        <v>405.017</v>
       </c>
       <c r="V39">
-        <v>-10.7</v>
+        <v>36.543999999999997</v>
       </c>
       <c r="W39">
-        <v>-22.1</v>
+        <v>-7.4089999999999998</v>
       </c>
       <c r="X39">
-        <v>-129.9</v>
+        <v>-29.036000000000001</v>
       </c>
       <c r="Y39">
-        <v>108.3</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>-139.9</v>
+        <v>61.843000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-95.4</v>
+        <v>72.385999999999996</v>
       </c>
       <c r="D40">
-        <v>490.6</v>
+        <v>565.08600000000001</v>
       </c>
       <c r="E40">
-        <v>500.2</v>
+        <v>351.30399999999997</v>
       </c>
       <c r="F40">
-        <v>176.1</v>
+        <v>287.59500000000003</v>
       </c>
       <c r="G40">
-        <v>2362.9</v>
+        <v>1089.242</v>
       </c>
       <c r="H40">
-        <v>8604.2000000000007</v>
+        <v>2797.2669999999998</v>
       </c>
       <c r="I40">
-        <v>214.1</v>
+        <v>106.864</v>
       </c>
       <c r="J40">
-        <v>2182.6999999999998</v>
+        <v>521.11500000000001</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>11.927</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>763</v>
+        <v>322.37400000000002</v>
       </c>
       <c r="O40">
-        <v>3958.8</v>
+        <v>1055.857</v>
       </c>
       <c r="P40">
-        <v>2284</v>
+        <v>543.81200000000001</v>
       </c>
       <c r="Q40">
-        <v>873.2</v>
+        <v>-64.67</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4645.3999999999996</v>
+        <v>1741.41</v>
       </c>
       <c r="U40">
-        <v>1109.0999999999999</v>
+        <v>340.34699999999998</v>
       </c>
       <c r="V40">
-        <v>175.1</v>
+        <v>113.92400000000001</v>
       </c>
       <c r="W40">
-        <v>-21.9</v>
+        <v>-8.3320000000000007</v>
       </c>
       <c r="X40">
-        <v>658.1</v>
+        <v>-128.16900000000001</v>
       </c>
       <c r="Y40">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-95.4</v>
+        <v>72.385999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>53.8</v>
+        <v>63.652000000000001</v>
       </c>
       <c r="D41">
-        <v>894.8</v>
+        <v>541.81500000000005</v>
       </c>
       <c r="E41">
-        <v>628.1</v>
+        <v>366.78899999999999</v>
       </c>
       <c r="F41">
-        <v>474.6</v>
+        <v>272.81400000000002</v>
       </c>
       <c r="G41">
-        <v>2579.6</v>
+        <v>1331.557</v>
       </c>
       <c r="H41">
-        <v>8895.9</v>
+        <v>3195.1559999999999</v>
       </c>
       <c r="I41">
-        <v>242.8</v>
+        <v>100.663</v>
       </c>
       <c r="J41">
-        <v>1930</v>
+        <v>738.03099999999995</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1178.2</v>
+        <v>351.91199999999998</v>
       </c>
       <c r="O41">
-        <v>4133.6000000000004</v>
+        <v>1318.6</v>
       </c>
       <c r="P41">
-        <v>2331.5</v>
+        <v>771.21100000000001</v>
       </c>
       <c r="Q41">
-        <v>162.9</v>
+        <v>193.89599999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4762.3</v>
+        <v>1876.556</v>
       </c>
       <c r="U41">
-        <v>1272</v>
+        <v>534.24300000000005</v>
       </c>
       <c r="V41">
-        <v>207.1</v>
+        <v>105.59</v>
       </c>
       <c r="W41">
-        <v>-21.9</v>
+        <v>-7.3109999999999999</v>
       </c>
       <c r="X41">
-        <v>-23.9</v>
+        <v>70.281999999999996</v>
       </c>
       <c r="Y41">
-        <v>105.4</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>53.8</v>
+        <v>63.652999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>67.826999999999998</v>
+      </c>
+      <c r="D42">
+        <v>568.16899999999998</v>
+      </c>
+      <c r="E42">
+        <v>344.79599999999999</v>
+      </c>
+      <c r="F42">
+        <v>287.71199999999999</v>
+      </c>
+      <c r="G42">
+        <v>1315.0450000000001</v>
+      </c>
+      <c r="H42">
+        <v>3257.951</v>
+      </c>
+      <c r="I42">
+        <v>114.479</v>
+      </c>
+      <c r="J42">
+        <v>753.03099999999995</v>
+      </c>
+      <c r="K42">
+        <v>5.2759999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>360.09100000000001</v>
+      </c>
+      <c r="O42">
+        <v>1348.039</v>
+      </c>
+      <c r="P42">
+        <v>786.61800000000005</v>
+      </c>
+      <c r="Q42">
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>9700</v>
+      </c>
+      <c r="T42">
+        <v>1909.912</v>
+      </c>
+      <c r="U42">
+        <v>540.03800000000001</v>
+      </c>
+      <c r="V42">
+        <v>121.40300000000001</v>
+      </c>
+      <c r="W42">
+        <v>-6.0250000000000004</v>
+      </c>
+      <c r="X42">
+        <v>-16.113</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-49.654000000000003</v>
+      </c>
+      <c r="AA42">
+        <v>67.826999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>69.084000000000003</v>
+      </c>
+      <c r="D43">
+        <v>570.50300000000004</v>
+      </c>
+      <c r="E43">
+        <v>385.35700000000003</v>
+      </c>
+      <c r="F43">
+        <v>299.98399999999998</v>
+      </c>
+      <c r="G43">
+        <v>1412.068</v>
+      </c>
+      <c r="H43">
+        <v>3437.049</v>
+      </c>
+      <c r="I43">
+        <v>111.943</v>
+      </c>
+      <c r="J43">
+        <v>841.38099999999997</v>
+      </c>
+      <c r="K43">
+        <v>11.452999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1.9510000000000001</v>
+      </c>
+      <c r="N43">
+        <v>362.01100000000002</v>
+      </c>
+      <c r="O43">
+        <v>1454.55</v>
+      </c>
+      <c r="P43">
+        <v>880.23099999999999</v>
+      </c>
+      <c r="Q43">
+        <v>35.225999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1982.499</v>
+      </c>
+      <c r="U43">
+        <v>575.26400000000001</v>
+      </c>
+      <c r="V43">
+        <v>44.728000000000002</v>
+      </c>
+      <c r="W43">
+        <v>-7.1310000000000002</v>
+      </c>
+      <c r="X43">
+        <v>-17.984000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>69.084000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>74.236000000000004</v>
+      </c>
+      <c r="D44">
+        <v>609.44299999999998</v>
+      </c>
+      <c r="E44">
+        <v>404.661</v>
+      </c>
+      <c r="F44">
+        <v>314.851</v>
+      </c>
+      <c r="G44">
+        <v>1552.413</v>
+      </c>
+      <c r="H44">
+        <v>3656.643</v>
+      </c>
+      <c r="I44">
+        <v>113.87</v>
+      </c>
+      <c r="J44">
+        <v>886.79200000000003</v>
+      </c>
+      <c r="K44">
+        <v>8.5</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>430.42599999999999</v>
+      </c>
+      <c r="O44">
+        <v>1575.41</v>
+      </c>
+      <c r="P44">
+        <v>950.73099999999999</v>
+      </c>
+      <c r="Q44">
+        <v>96.445999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2081.2330000000002</v>
+      </c>
+      <c r="U44">
+        <v>671.71</v>
+      </c>
+      <c r="V44">
+        <v>121.78100000000001</v>
+      </c>
+      <c r="W44">
+        <v>-7.181</v>
+      </c>
+      <c r="X44">
+        <v>-19.7</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>74.236000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>60.597000000000001</v>
+      </c>
+      <c r="D45">
+        <v>619.75900000000001</v>
+      </c>
+      <c r="E45">
+        <v>475.947</v>
+      </c>
+      <c r="F45">
+        <v>297.64800000000002</v>
+      </c>
+      <c r="G45">
+        <v>1089.605</v>
+      </c>
+      <c r="H45">
+        <v>4833.7110000000002</v>
+      </c>
+      <c r="I45">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1991.309</v>
+      </c>
+      <c r="K45">
+        <v>45.573</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>512.68899999999996</v>
+      </c>
+      <c r="O45">
+        <v>2943.297</v>
+      </c>
+      <c r="P45">
+        <v>2077.2440000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-589.84400000000005</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1890.414</v>
+      </c>
+      <c r="U45">
+        <v>81.866</v>
+      </c>
+      <c r="V45">
+        <v>88.322999999999993</v>
+      </c>
+      <c r="W45">
+        <v>-7.2</v>
+      </c>
+      <c r="X45">
+        <v>1119.634</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>60.597000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>40.603000000000002</v>
+      </c>
+      <c r="D46">
+        <v>738.01300000000003</v>
+      </c>
+      <c r="E46">
+        <v>427.709</v>
+      </c>
+      <c r="F46">
+        <v>393.95699999999999</v>
+      </c>
+      <c r="G46">
+        <v>1012.903</v>
+      </c>
+      <c r="H46">
+        <v>4755.3980000000001</v>
+      </c>
+      <c r="I46">
+        <v>149.11699999999999</v>
+      </c>
+      <c r="J46">
+        <v>1677.2</v>
+      </c>
+      <c r="K46">
+        <v>275.29199999999997</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>724.07299999999998</v>
+      </c>
+      <c r="O46">
+        <v>2871.2469999999998</v>
+      </c>
+      <c r="P46">
+        <v>1967.796</v>
+      </c>
+      <c r="Q46">
+        <v>-4.7380000000000004</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>11800</v>
+      </c>
+      <c r="T46">
+        <v>1884.1510000000001</v>
+      </c>
+      <c r="U46">
+        <v>77.128</v>
+      </c>
+      <c r="V46">
+        <v>138.637</v>
+      </c>
+      <c r="W46">
+        <v>-7.12</v>
+      </c>
+      <c r="X46">
+        <v>-79.569000000000003</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AA46">
+        <v>40.603000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>53.283999999999999</v>
+      </c>
+      <c r="D47">
+        <v>716.41300000000001</v>
+      </c>
+      <c r="E47">
+        <v>461.35199999999998</v>
+      </c>
+      <c r="F47">
+        <v>392.75</v>
+      </c>
+      <c r="G47">
+        <v>1119.1849999999999</v>
+      </c>
+      <c r="H47">
+        <v>5015.0609999999997</v>
+      </c>
+      <c r="I47">
+        <v>163.41900000000001</v>
+      </c>
+      <c r="J47">
+        <v>1628.3820000000001</v>
+      </c>
+      <c r="K47">
+        <v>288.03699999999998</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-5.1710000000000003</v>
+      </c>
+      <c r="N47">
+        <v>794.48299999999995</v>
+      </c>
+      <c r="O47">
+        <v>2968.0859999999998</v>
+      </c>
+      <c r="P47">
+        <v>1987.202</v>
+      </c>
+      <c r="Q47">
+        <v>-9.782</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2046.9749999999999</v>
+      </c>
+      <c r="U47">
+        <v>67.346000000000004</v>
+      </c>
+      <c r="V47">
+        <v>19.952999999999999</v>
+      </c>
+      <c r="W47">
+        <v>-7.8470000000000004</v>
+      </c>
+      <c r="X47">
+        <v>-12.38</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>53.283999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>80.765000000000001</v>
+      </c>
+      <c r="D48">
+        <v>762.99400000000003</v>
+      </c>
+      <c r="E48">
+        <v>462.233</v>
+      </c>
+      <c r="F48">
+        <v>407.46899999999999</v>
+      </c>
+      <c r="G48">
+        <v>1105.182</v>
+      </c>
+      <c r="H48">
+        <v>4870.7560000000003</v>
+      </c>
+      <c r="I48">
+        <v>145.85</v>
+      </c>
+      <c r="J48">
+        <v>1587.7670000000001</v>
+      </c>
+      <c r="K48">
+        <v>241.80099999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>748.20299999999997</v>
+      </c>
+      <c r="O48">
+        <v>2881.7570000000001</v>
+      </c>
+      <c r="P48">
+        <v>1912.625</v>
+      </c>
+      <c r="Q48">
+        <v>-14.135999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1988.999</v>
+      </c>
+      <c r="U48">
+        <v>53.21</v>
+      </c>
+      <c r="V48">
+        <v>83.441999999999993</v>
+      </c>
+      <c r="W48">
+        <v>-7.859</v>
+      </c>
+      <c r="X48">
+        <v>-55.033999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>80.763999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>53.363999999999997</v>
+      </c>
+      <c r="D49">
+        <v>695.73400000000004</v>
+      </c>
+      <c r="E49">
+        <v>467.29599999999999</v>
+      </c>
+      <c r="F49">
+        <v>364.11500000000001</v>
+      </c>
+      <c r="G49">
+        <v>1128.9780000000001</v>
+      </c>
+      <c r="H49">
+        <v>4977.4219999999996</v>
+      </c>
+      <c r="I49">
+        <v>137.66900000000001</v>
+      </c>
+      <c r="J49">
+        <v>1338.607</v>
+      </c>
+      <c r="K49">
+        <v>411.84</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>940.72</v>
+      </c>
+      <c r="O49">
+        <v>2816.5549999999998</v>
+      </c>
+      <c r="P49">
+        <v>1838.117</v>
+      </c>
+      <c r="Q49">
+        <v>2.8650000000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2160.8670000000002</v>
+      </c>
+      <c r="U49">
+        <v>56.075000000000003</v>
+      </c>
+      <c r="V49">
+        <v>98.67</v>
+      </c>
+      <c r="W49">
+        <v>-7.8550000000000004</v>
+      </c>
+      <c r="X49">
+        <v>-78.171000000000006</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>53.363999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>126.8</v>
+      </c>
+      <c r="D50">
+        <v>753.28800000000001</v>
+      </c>
+      <c r="E50">
+        <v>442.41199999999998</v>
+      </c>
+      <c r="F50">
+        <v>392.053</v>
+      </c>
+      <c r="G50">
+        <v>1111.096</v>
+      </c>
+      <c r="H50">
+        <v>4972.2969999999996</v>
+      </c>
+      <c r="I50">
+        <v>165.29</v>
+      </c>
+      <c r="J50">
+        <v>1280.845</v>
+      </c>
+      <c r="K50">
+        <v>48.085000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>927.78</v>
+      </c>
+      <c r="O50">
+        <v>2722.8539999999998</v>
+      </c>
+      <c r="P50">
+        <v>1717.7539999999999</v>
+      </c>
+      <c r="Q50">
+        <v>24.056999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>11900</v>
+      </c>
+      <c r="T50">
+        <v>2249.4430000000002</v>
+      </c>
+      <c r="U50">
+        <v>80.132000000000005</v>
+      </c>
+      <c r="V50">
+        <v>167.62</v>
+      </c>
+      <c r="W50">
+        <v>-7.8639999999999999</v>
+      </c>
+      <c r="X50">
+        <v>-110.024</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>71.685000000000002</v>
+      </c>
+      <c r="D51">
+        <v>732.08399999999995</v>
+      </c>
+      <c r="E51">
+        <v>468.53699999999998</v>
+      </c>
+      <c r="F51">
+        <v>388.2</v>
+      </c>
+      <c r="G51">
+        <v>1160.519</v>
+      </c>
+      <c r="H51">
+        <v>4902.1279999999997</v>
+      </c>
+      <c r="I51">
+        <v>148.715</v>
+      </c>
+      <c r="J51">
+        <v>1295.5119999999999</v>
+      </c>
+      <c r="K51">
+        <v>315.43799999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>826.16499999999996</v>
+      </c>
+      <c r="O51">
+        <v>2632.7339999999999</v>
+      </c>
+      <c r="P51">
+        <v>1691.769</v>
+      </c>
+      <c r="Q51">
+        <v>-23.928999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2269.3939999999998</v>
+      </c>
+      <c r="U51">
+        <v>56.203000000000003</v>
+      </c>
+      <c r="V51">
+        <v>36.085999999999999</v>
+      </c>
+      <c r="W51">
+        <v>-7.9089999999999998</v>
+      </c>
+      <c r="X51">
+        <v>13.603</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>71.685000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>87.227999999999994</v>
+      </c>
+      <c r="D52">
+        <v>761.01</v>
+      </c>
+      <c r="E52">
+        <v>499.00599999999997</v>
+      </c>
+      <c r="F52">
+        <v>414.95600000000002</v>
+      </c>
+      <c r="G52">
+        <v>1170.0329999999999</v>
+      </c>
+      <c r="H52">
+        <v>4874.683</v>
+      </c>
+      <c r="I52">
+        <v>147.45500000000001</v>
+      </c>
+      <c r="J52">
+        <v>1189.328</v>
+      </c>
+      <c r="K52">
+        <v>417.065</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>890.61500000000001</v>
+      </c>
+      <c r="O52">
+        <v>2586.587</v>
+      </c>
+      <c r="P52">
+        <v>1641.0329999999999</v>
+      </c>
+      <c r="Q52">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2288.096</v>
+      </c>
+      <c r="U52">
+        <v>57.027000000000001</v>
+      </c>
+      <c r="V52">
+        <v>95.781999999999996</v>
+      </c>
+      <c r="W52">
+        <v>-9.0190000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-29.039000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>87.227999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="D53">
+        <v>704.01800000000003</v>
+      </c>
+      <c r="E53">
+        <v>502.37</v>
+      </c>
+      <c r="F53">
+        <v>376.41699999999997</v>
+      </c>
+      <c r="G53">
+        <v>1153.145</v>
+      </c>
+      <c r="H53">
+        <v>5009.9790000000003</v>
+      </c>
+      <c r="I53">
+        <v>136.94499999999999</v>
+      </c>
+      <c r="J53">
+        <v>1226.1479999999999</v>
+      </c>
+      <c r="K53">
+        <v>270.94799999999998</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>777.56100000000004</v>
+      </c>
+      <c r="O53">
+        <v>2530.9609999999998</v>
+      </c>
+      <c r="P53">
+        <v>1549.9939999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-6.3689999999999998</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2479.018</v>
+      </c>
+      <c r="U53">
+        <v>50.658000000000001</v>
+      </c>
+      <c r="V53">
+        <v>126.398</v>
+      </c>
+      <c r="W53">
+        <v>-8.9670000000000005</v>
+      </c>
+      <c r="X53">
+        <v>-109.214</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>79.850999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>74.429000000000002</v>
+      </c>
+      <c r="D54">
+        <v>753.65800000000002</v>
+      </c>
+      <c r="E54">
+        <v>472.80200000000002</v>
+      </c>
+      <c r="F54">
+        <v>397.839</v>
+      </c>
+      <c r="G54">
+        <v>1143.8019999999999</v>
+      </c>
+      <c r="H54">
+        <v>5078.0469999999996</v>
+      </c>
+      <c r="I54">
+        <v>132.78899999999999</v>
+      </c>
+      <c r="J54">
+        <v>1185.2070000000001</v>
+      </c>
+      <c r="K54">
+        <v>105.206</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>796.40499999999997</v>
+      </c>
+      <c r="O54">
+        <v>2500.0729999999999</v>
+      </c>
+      <c r="P54">
+        <v>1536.394</v>
+      </c>
+      <c r="Q54">
+        <v>24.295999999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>11800</v>
+      </c>
+      <c r="T54">
+        <v>2577.9740000000002</v>
+      </c>
+      <c r="U54">
+        <v>74.953999999999994</v>
+      </c>
+      <c r="V54">
+        <v>159.58000000000001</v>
+      </c>
+      <c r="W54">
+        <v>-8.9789999999999992</v>
+      </c>
+      <c r="X54">
+        <v>-37.034999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>74.429000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>72.878</v>
+      </c>
+      <c r="D55">
+        <v>730.11400000000003</v>
+      </c>
+      <c r="E55">
+        <v>496.221</v>
+      </c>
+      <c r="F55">
+        <v>394.20499999999998</v>
+      </c>
+      <c r="G55">
+        <v>1202.3230000000001</v>
+      </c>
+      <c r="H55">
+        <v>5089.433</v>
+      </c>
+      <c r="I55">
+        <v>141.59100000000001</v>
+      </c>
+      <c r="J55">
+        <v>1088.0740000000001</v>
+      </c>
+      <c r="K55">
+        <v>403.14499999999998</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-75.174000000000007</v>
+      </c>
+      <c r="N55">
+        <v>967.44600000000003</v>
+      </c>
+      <c r="O55">
+        <v>2564.835</v>
+      </c>
+      <c r="P55">
+        <v>1531.883</v>
+      </c>
+      <c r="Q55">
+        <v>-19.131</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2524.598</v>
+      </c>
+      <c r="U55">
+        <v>55.823</v>
+      </c>
+      <c r="V55">
+        <v>64.564999999999998</v>
+      </c>
+      <c r="W55">
+        <v>-8.9789999999999992</v>
+      </c>
+      <c r="X55">
+        <v>-55.476999999999997</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-1.1439999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>72.878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>89.992999999999995</v>
+      </c>
+      <c r="D56">
+        <v>765.22500000000002</v>
+      </c>
+      <c r="E56">
+        <v>503.97199999999998</v>
+      </c>
+      <c r="F56">
+        <v>424.46899999999999</v>
+      </c>
+      <c r="G56">
+        <v>1231.2739999999999</v>
+      </c>
+      <c r="H56">
+        <v>5072.3729999999996</v>
+      </c>
+      <c r="I56">
+        <v>143.56200000000001</v>
+      </c>
+      <c r="J56">
+        <v>1083.6030000000001</v>
+      </c>
+      <c r="K56">
+        <v>301.29399999999998</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>896.30899999999997</v>
+      </c>
+      <c r="O56">
+        <v>2487.5990000000002</v>
+      </c>
+      <c r="P56">
+        <v>1430.194</v>
+      </c>
+      <c r="Q56">
+        <v>11.106</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2584.7739999999999</v>
+      </c>
+      <c r="U56">
+        <v>66.929000000000002</v>
+      </c>
+      <c r="V56">
+        <v>155.68</v>
+      </c>
+      <c r="W56">
+        <v>-9.4740000000000002</v>
+      </c>
+      <c r="X56">
+        <v>-117.968</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA56">
+        <v>89.992999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>75.228999999999999</v>
+      </c>
+      <c r="D57">
+        <v>708.2</v>
+      </c>
+      <c r="E57">
+        <v>476.85599999999999</v>
+      </c>
+      <c r="F57">
+        <v>388.1</v>
+      </c>
+      <c r="G57">
+        <v>1257.701</v>
+      </c>
+      <c r="H57">
+        <v>4884.0609999999997</v>
+      </c>
+      <c r="I57">
+        <v>128.233</v>
+      </c>
+      <c r="J57">
+        <v>1166.425</v>
+      </c>
+      <c r="K57">
+        <v>115.253</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>734.56899999999996</v>
+      </c>
+      <c r="O57">
+        <v>2387.817</v>
+      </c>
+      <c r="P57">
+        <v>1364.335</v>
+      </c>
+      <c r="Q57">
+        <v>30.725000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2496.2440000000001</v>
+      </c>
+      <c r="U57">
+        <v>97.652000000000001</v>
+      </c>
+      <c r="V57">
+        <v>147.45500000000001</v>
+      </c>
+      <c r="W57">
+        <v>-9.4469999999999992</v>
+      </c>
+      <c r="X57">
+        <v>-90.855000000000004</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="AA57">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>84.8</v>
+      </c>
+      <c r="D58">
+        <v>719</v>
+      </c>
+      <c r="E58">
+        <v>426.6</v>
+      </c>
+      <c r="F58">
+        <v>393.1</v>
+      </c>
+      <c r="G58">
+        <v>1207</v>
+      </c>
+      <c r="H58">
+        <v>4646.5</v>
+      </c>
+      <c r="I58">
+        <v>132.6</v>
+      </c>
+      <c r="J58">
+        <v>1150.5999999999999</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>652.6</v>
+      </c>
+      <c r="O58">
+        <v>2324.3000000000002</v>
+      </c>
+      <c r="P58">
+        <v>1263</v>
+      </c>
+      <c r="Q58">
+        <v>53.9</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>11600</v>
+      </c>
+      <c r="T58">
+        <v>2322.1999999999998</v>
+      </c>
+      <c r="U58">
+        <v>151.6</v>
+      </c>
+      <c r="V58">
+        <v>192.7</v>
+      </c>
+      <c r="W58">
+        <v>-9.4</v>
+      </c>
+      <c r="X58">
+        <v>-71.900000000000006</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-8.6</v>
+      </c>
+      <c r="AA58">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>64</v>
+      </c>
+      <c r="D59">
+        <v>656.3</v>
+      </c>
+      <c r="E59">
+        <v>409.86500000000001</v>
+      </c>
+      <c r="F59">
+        <v>373.4</v>
+      </c>
+      <c r="G59">
+        <v>1200.0820000000001</v>
+      </c>
+      <c r="H59">
+        <v>4384.83</v>
+      </c>
+      <c r="I59">
+        <v>134.09</v>
+      </c>
+      <c r="J59">
+        <v>1079.9570000000001</v>
+      </c>
+      <c r="K59">
+        <v>247.631</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-100.1</v>
+      </c>
+      <c r="N59">
+        <v>661.83299999999997</v>
+      </c>
+      <c r="O59">
+        <v>2210.578</v>
+      </c>
+      <c r="P59">
+        <v>1328.807</v>
+      </c>
+      <c r="Q59">
+        <v>-51</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2174.252</v>
+      </c>
+      <c r="U59">
+        <v>100.619</v>
+      </c>
+      <c r="V59">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="W59">
+        <v>-9.5</v>
+      </c>
+      <c r="X59">
+        <v>-100.5</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>44.1</v>
+      </c>
+      <c r="D60">
+        <v>698</v>
+      </c>
+      <c r="E60">
+        <v>447.5</v>
+      </c>
+      <c r="F60">
+        <v>399.7</v>
+      </c>
+      <c r="G60">
+        <v>1270.33</v>
+      </c>
+      <c r="H60">
+        <v>4496.7560000000003</v>
+      </c>
+      <c r="I60">
+        <v>132.96600000000001</v>
+      </c>
+      <c r="J60">
+        <v>1078.598</v>
+      </c>
+      <c r="K60">
+        <v>35.982999999999997</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>612.97299999999996</v>
+      </c>
+      <c r="O60">
+        <v>2180.4670000000001</v>
+      </c>
+      <c r="P60">
+        <v>1199.5170000000001</v>
+      </c>
+      <c r="Q60">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2316.2890000000002</v>
+      </c>
+      <c r="U60">
+        <v>96.471999999999994</v>
+      </c>
+      <c r="V60">
+        <v>145.6</v>
+      </c>
+      <c r="W60">
+        <v>-10.1</v>
+      </c>
+      <c r="X60">
+        <v>-138</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>84.5</v>
+      </c>
+      <c r="D61">
+        <v>648.9</v>
+      </c>
+      <c r="E61">
+        <v>429.8</v>
+      </c>
+      <c r="F61">
+        <v>369.5</v>
+      </c>
+      <c r="G61">
+        <v>1208.0999999999999</v>
+      </c>
+      <c r="H61">
+        <v>4402.2</v>
+      </c>
+      <c r="I61">
+        <v>137.5</v>
+      </c>
+      <c r="J61">
+        <v>702</v>
+      </c>
+      <c r="K61">
+        <v>453.2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>933.4</v>
+      </c>
+      <c r="O61">
+        <v>2120.6999999999998</v>
+      </c>
+      <c r="P61">
+        <v>1156.5999999999999</v>
+      </c>
+      <c r="Q61">
+        <v>139.9</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2281.5</v>
+      </c>
+      <c r="U61">
+        <v>236.4</v>
+      </c>
+      <c r="V61">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="W61">
+        <v>-10.3</v>
+      </c>
+      <c r="X61">
+        <v>-55.5</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>47.7</v>
+      </c>
+      <c r="AA61">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>58.6</v>
+      </c>
+      <c r="D62">
+        <v>671.1</v>
+      </c>
+      <c r="E62">
+        <v>399.9</v>
+      </c>
+      <c r="F62">
+        <v>382.1</v>
+      </c>
+      <c r="G62">
+        <v>1196.7</v>
+      </c>
+      <c r="H62">
+        <v>4402.8999999999996</v>
+      </c>
+      <c r="I62">
+        <v>133.6</v>
+      </c>
+      <c r="J62">
+        <v>1141.2</v>
+      </c>
+      <c r="K62">
+        <v>2.9</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>476</v>
+      </c>
+      <c r="O62">
+        <v>2063.5</v>
+      </c>
+      <c r="P62">
+        <v>1154.3</v>
+      </c>
+      <c r="Q62">
+        <v>48.2</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>11400</v>
+      </c>
+      <c r="T62">
+        <v>2339.4</v>
+      </c>
+      <c r="U62">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="V62">
+        <v>126.4</v>
+      </c>
+      <c r="W62">
+        <v>-10.1</v>
+      </c>
+      <c r="X62">
+        <v>-8.9</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>125</v>
+      </c>
+      <c r="D63">
+        <v>772.6</v>
+      </c>
+      <c r="E63">
+        <v>625.20000000000005</v>
+      </c>
+      <c r="F63">
+        <v>418.9</v>
+      </c>
+      <c r="G63">
+        <v>1805.5</v>
+      </c>
+      <c r="H63">
+        <v>11682.4</v>
+      </c>
+      <c r="I63">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="J63">
+        <v>1170.0999999999999</v>
+      </c>
+      <c r="K63">
+        <v>0.9</v>
+      </c>
+      <c r="L63">
+        <v>-2.1</v>
+      </c>
+      <c r="M63">
+        <v>-127.5</v>
+      </c>
+      <c r="N63">
+        <v>854.2</v>
+      </c>
+      <c r="O63">
+        <v>3297</v>
+      </c>
+      <c r="P63">
+        <v>1181.9000000000001</v>
+      </c>
+      <c r="Q63">
+        <v>38.5</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>8385.4</v>
+      </c>
+      <c r="U63">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="V63">
+        <v>0.7</v>
+      </c>
+      <c r="W63">
+        <v>-10.1</v>
+      </c>
+      <c r="X63">
+        <v>-472.8</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>105.4</v>
+      </c>
+      <c r="D64">
+        <v>1022</v>
+      </c>
+      <c r="E64">
+        <v>637.20000000000005</v>
+      </c>
+      <c r="F64">
+        <v>526.9</v>
+      </c>
+      <c r="G64">
+        <v>1738.4</v>
+      </c>
+      <c r="H64">
+        <v>11451.4</v>
+      </c>
+      <c r="I64">
+        <v>227.1</v>
+      </c>
+      <c r="J64">
+        <v>1173</v>
+      </c>
+      <c r="K64">
+        <v>0.1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>722.5</v>
+      </c>
+      <c r="O64">
+        <v>3135.8</v>
+      </c>
+      <c r="P64">
+        <v>1183.3</v>
+      </c>
+      <c r="Q64">
+        <v>-11.5</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8315.6</v>
+      </c>
+      <c r="U64">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="V64">
+        <v>187.4</v>
+      </c>
+      <c r="W64">
+        <v>-18.5</v>
+      </c>
+      <c r="X64">
+        <v>-177.8</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>92.5</v>
+      </c>
+      <c r="D65">
+        <v>954.2</v>
+      </c>
+      <c r="E65">
+        <v>672.1</v>
+      </c>
+      <c r="F65">
+        <v>513.6</v>
+      </c>
+      <c r="G65">
+        <v>1841.6</v>
+      </c>
+      <c r="H65">
+        <v>11952.4</v>
+      </c>
+      <c r="I65">
+        <v>224</v>
+      </c>
+      <c r="J65">
+        <v>1570.8</v>
+      </c>
+      <c r="K65">
+        <v>6.5</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>770.2</v>
+      </c>
+      <c r="O65">
+        <v>3595.3</v>
+      </c>
+      <c r="P65">
+        <v>1587.5</v>
+      </c>
+      <c r="Q65">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>8357.1</v>
+      </c>
+      <c r="U65">
+        <v>330.7</v>
+      </c>
+      <c r="V65">
+        <v>152.9</v>
+      </c>
+      <c r="W65">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="X65">
+        <v>237.1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>107</v>
+      </c>
+      <c r="D66">
+        <v>996.5</v>
+      </c>
+      <c r="E66">
+        <v>636</v>
+      </c>
+      <c r="F66">
+        <v>541.5</v>
+      </c>
+      <c r="G66">
+        <v>1743.5</v>
+      </c>
+      <c r="H66">
+        <v>11555.8</v>
+      </c>
+      <c r="I66">
+        <v>223</v>
+      </c>
+      <c r="J66">
+        <v>1511.4</v>
+      </c>
+      <c r="K66">
+        <v>10.1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>767.6</v>
+      </c>
+      <c r="O66">
+        <v>3429.9</v>
+      </c>
+      <c r="P66">
+        <v>1532.7</v>
+      </c>
+      <c r="Q66">
+        <v>53.2</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>15700</v>
+      </c>
+      <c r="T66">
+        <v>8125.9</v>
+      </c>
+      <c r="U66">
+        <v>383.9</v>
+      </c>
+      <c r="V66">
+        <v>222.4</v>
+      </c>
+      <c r="W66">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="X66">
+        <v>-112.7</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-6.8</v>
+      </c>
+      <c r="AA66">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>59.8</v>
+      </c>
+      <c r="D67">
+        <v>900.5</v>
+      </c>
+      <c r="E67">
+        <v>598.6</v>
+      </c>
+      <c r="F67">
+        <v>492</v>
+      </c>
+      <c r="G67">
+        <v>1720.6</v>
+      </c>
+      <c r="H67">
+        <v>11594</v>
+      </c>
+      <c r="I67">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="J67">
+        <v>1528.3</v>
+      </c>
+      <c r="K67">
+        <v>11.6</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-5.4</v>
+      </c>
+      <c r="N67">
+        <v>747.5</v>
+      </c>
+      <c r="O67">
+        <v>3430.4</v>
+      </c>
+      <c r="P67">
+        <v>1551.2</v>
+      </c>
+      <c r="Q67">
+        <v>-20.6</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8163.6</v>
+      </c>
+      <c r="U67">
+        <v>363.3</v>
+      </c>
+      <c r="V67">
+        <v>82.5</v>
+      </c>
+      <c r="W67">
+        <v>-18</v>
+      </c>
+      <c r="X67">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-0.1</v>
+      </c>
+      <c r="AA67">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-1050</v>
+      </c>
+      <c r="D68">
+        <v>992.7</v>
+      </c>
+      <c r="E68">
+        <v>664.2</v>
+      </c>
+      <c r="F68">
+        <v>544.20000000000005</v>
+      </c>
+      <c r="G68">
+        <v>1765.7</v>
+      </c>
+      <c r="H68">
+        <v>10850</v>
+      </c>
+      <c r="I68">
+        <v>245.6</v>
+      </c>
+      <c r="J68">
+        <v>1587.5</v>
+      </c>
+      <c r="K68">
+        <v>11.6</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>753.7</v>
+      </c>
+      <c r="O68">
+        <v>3575.8</v>
+      </c>
+      <c r="P68">
+        <v>1609.3</v>
+      </c>
+      <c r="Q68">
+        <v>-94.9</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7274.2</v>
+      </c>
+      <c r="U68">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="V68">
+        <v>126.2</v>
+      </c>
+      <c r="W68">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="X68">
+        <v>-78.900000000000006</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AA68">
+        <v>-1050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>90.6</v>
+      </c>
+      <c r="D69">
+        <v>1009.2</v>
+      </c>
+      <c r="E69">
+        <v>734.4</v>
+      </c>
+      <c r="F69">
+        <v>559</v>
+      </c>
+      <c r="G69">
+        <v>1972.4</v>
+      </c>
+      <c r="H69">
+        <v>11199</v>
+      </c>
+      <c r="I69">
+        <v>249</v>
+      </c>
+      <c r="J69">
+        <v>1600.9</v>
+      </c>
+      <c r="K69">
+        <v>12.3</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>848.4</v>
+      </c>
+      <c r="O69">
+        <v>3709.2</v>
+      </c>
+      <c r="P69">
+        <v>1622.6</v>
+      </c>
+      <c r="Q69">
+        <v>101.6</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>7489.8</v>
+      </c>
+      <c r="U69">
+        <v>370</v>
+      </c>
+      <c r="V69">
+        <v>164.3</v>
+      </c>
+      <c r="W69">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="X69">
+        <v>-22.1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-650.4</v>
+      </c>
+      <c r="D70">
+        <v>1091</v>
+      </c>
+      <c r="E70">
+        <v>746.2</v>
+      </c>
+      <c r="F70">
+        <v>593.29999999999995</v>
+      </c>
+      <c r="G70">
+        <v>2002.5</v>
+      </c>
+      <c r="H70">
+        <v>10374.5</v>
+      </c>
+      <c r="I70">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="J70">
+        <v>1611.7</v>
+      </c>
+      <c r="K70">
+        <v>20.9</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>954.5</v>
+      </c>
+      <c r="O70">
+        <v>3746.6</v>
+      </c>
+      <c r="P70">
+        <v>1642.1</v>
+      </c>
+      <c r="Q70">
+        <v>-49.4</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>16100</v>
+      </c>
+      <c r="T70">
+        <v>6627.9</v>
+      </c>
+      <c r="U70">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="V70">
+        <v>228.9</v>
+      </c>
+      <c r="W70">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-232.2</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-0.2</v>
+      </c>
+      <c r="AA70">
+        <v>-650.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>81.2</v>
+      </c>
+      <c r="D71">
+        <v>956.1</v>
+      </c>
+      <c r="E71">
+        <v>670.4</v>
+      </c>
+      <c r="F71">
+        <v>514.1</v>
+      </c>
+      <c r="G71">
+        <v>2000.5</v>
+      </c>
+      <c r="H71">
+        <v>10372.799999999999</v>
+      </c>
+      <c r="I71">
+        <v>286.8</v>
+      </c>
+      <c r="J71">
+        <v>1645.6</v>
+      </c>
+      <c r="K71">
+        <v>13.5</v>
+      </c>
+      <c r="L71">
+        <v>-7.8</v>
+      </c>
+      <c r="M71">
+        <v>-0.2</v>
+      </c>
+      <c r="N71">
+        <v>895.4</v>
+      </c>
+      <c r="O71">
+        <v>3667.6</v>
+      </c>
+      <c r="P71">
+        <v>1668.5</v>
+      </c>
+      <c r="Q71">
+        <v>-3.5</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6705.2</v>
+      </c>
+      <c r="U71">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="V71">
+        <v>55.1</v>
+      </c>
+      <c r="W71">
+        <v>-19.8</v>
+      </c>
+      <c r="X71">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-1122</v>
+      </c>
+      <c r="D72">
+        <v>1042.0999999999999</v>
+      </c>
+      <c r="E72">
+        <v>710.3</v>
+      </c>
+      <c r="F72">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="G72">
+        <v>1892.4</v>
+      </c>
+      <c r="H72">
+        <v>8822</v>
+      </c>
+      <c r="I72">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="J72">
+        <v>1586.6</v>
+      </c>
+      <c r="K72">
+        <v>209.3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1117.7</v>
+      </c>
+      <c r="O72">
+        <v>3681.9</v>
+      </c>
+      <c r="P72">
+        <v>1805</v>
+      </c>
+      <c r="Q72">
+        <v>-77.8</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5140.1000000000004</v>
+      </c>
+      <c r="U72">
+        <v>239.3</v>
+      </c>
+      <c r="V72">
+        <v>116.9</v>
+      </c>
+      <c r="W72">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="X72">
+        <v>-69.400000000000006</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>54.1</v>
+      </c>
+      <c r="AA72">
+        <v>-1122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>28</v>
+      </c>
+      <c r="D73">
+        <v>928.4</v>
+      </c>
+      <c r="E73">
+        <v>702</v>
+      </c>
+      <c r="F73">
+        <v>476.1</v>
+      </c>
+      <c r="G73">
+        <v>1902.8</v>
+      </c>
+      <c r="H73">
+        <v>8769.2000000000007</v>
+      </c>
+      <c r="I73">
+        <v>287.8</v>
+      </c>
+      <c r="J73">
+        <v>1574.8</v>
+      </c>
+      <c r="K73">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1080.0999999999999</v>
+      </c>
+      <c r="O73">
+        <v>3614.9</v>
+      </c>
+      <c r="P73">
+        <v>1729.6</v>
+      </c>
+      <c r="Q73">
+        <v>-6.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5154.3</v>
+      </c>
+      <c r="U73">
+        <v>233.1</v>
+      </c>
+      <c r="V73">
+        <v>125.6</v>
+      </c>
+      <c r="W73">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-82.4</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-0.1</v>
+      </c>
+      <c r="AA73">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1.8</v>
+      </c>
+      <c r="D74">
+        <v>1059.7</v>
+      </c>
+      <c r="E74">
+        <v>701.9</v>
+      </c>
+      <c r="F74">
+        <v>524.79999999999995</v>
+      </c>
+      <c r="G74">
+        <v>1888</v>
+      </c>
+      <c r="H74">
+        <v>8687</v>
+      </c>
+      <c r="I74">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="J74">
+        <v>1564.9</v>
+      </c>
+      <c r="K74">
+        <v>81.8</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1013.3</v>
+      </c>
+      <c r="O74">
+        <v>3554</v>
+      </c>
+      <c r="P74">
+        <v>1657.5</v>
+      </c>
+      <c r="Q74">
+        <v>76.5</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>16400</v>
+      </c>
+      <c r="T74">
+        <v>5133</v>
+      </c>
+      <c r="U74">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="V74">
+        <v>202.2</v>
+      </c>
+      <c r="W74">
+        <v>-19.5</v>
+      </c>
+      <c r="X74">
+        <v>-78.599999999999994</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-3.6</v>
+      </c>
+      <c r="AA74">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D75">
+        <v>946.2</v>
+      </c>
+      <c r="E75">
+        <v>658.5</v>
+      </c>
+      <c r="F75">
+        <v>499.7</v>
+      </c>
+      <c r="G75">
+        <v>1795.6</v>
+      </c>
+      <c r="H75">
+        <v>8604.5</v>
+      </c>
+      <c r="I75">
+        <v>269</v>
+      </c>
+      <c r="J75">
+        <v>1543.6</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-67.900000000000006</v>
+      </c>
+      <c r="M75">
+        <v>-1.9</v>
+      </c>
+      <c r="N75">
+        <v>870.6</v>
+      </c>
+      <c r="O75">
+        <v>3495</v>
+      </c>
+      <c r="P75">
+        <v>1733.2</v>
+      </c>
+      <c r="Q75">
+        <v>-84.2</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5109.5</v>
+      </c>
+      <c r="U75">
+        <v>225.4</v>
+      </c>
+      <c r="V75">
+        <v>29.3</v>
+      </c>
+      <c r="W75">
+        <v>-19.5</v>
+      </c>
+      <c r="X75">
+        <v>-99.2</v>
+      </c>
+      <c r="Y75">
+        <v>127</v>
+      </c>
+      <c r="Z75">
+        <v>-0.8</v>
+      </c>
+      <c r="AA75">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>36.4</v>
+      </c>
+      <c r="D76">
+        <v>1009.4</v>
+      </c>
+      <c r="E76">
+        <v>700.1</v>
+      </c>
+      <c r="F76">
+        <v>540.79999999999995</v>
+      </c>
+      <c r="G76">
+        <v>1828.3</v>
+      </c>
+      <c r="H76">
+        <v>8575.2999999999993</v>
+      </c>
+      <c r="I76">
+        <v>248.1</v>
+      </c>
+      <c r="J76">
+        <v>1439.9</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>880.8</v>
+      </c>
+      <c r="O76">
+        <v>3392.4</v>
+      </c>
+      <c r="P76">
+        <v>1656.6</v>
+      </c>
+      <c r="Q76">
+        <v>24.7</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5182.8999999999996</v>
+      </c>
+      <c r="U76">
+        <v>250.1</v>
+      </c>
+      <c r="V76">
+        <v>145.1</v>
+      </c>
+      <c r="W76">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="X76">
+        <v>-110.3</v>
+      </c>
+      <c r="Y76">
+        <v>120.7</v>
+      </c>
+      <c r="Z76">
+        <v>0.5</v>
+      </c>
+      <c r="AA76">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>85</v>
+      </c>
+      <c r="D77">
+        <v>962.1</v>
+      </c>
+      <c r="E77">
+        <v>698.4</v>
+      </c>
+      <c r="F77">
+        <v>517.6</v>
+      </c>
+      <c r="G77">
+        <v>1811.3</v>
+      </c>
+      <c r="H77">
+        <v>8366.7999999999993</v>
+      </c>
+      <c r="I77">
+        <v>246.3</v>
+      </c>
+      <c r="J77">
+        <v>1402.6</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>868.9</v>
+      </c>
+      <c r="O77">
+        <v>3307.7</v>
+      </c>
+      <c r="P77">
+        <v>1575.7</v>
+      </c>
+      <c r="Q77">
+        <v>-24</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5059.1000000000004</v>
+      </c>
+      <c r="U77">
+        <v>226.1</v>
+      </c>
+      <c r="V77">
+        <v>159.1</v>
+      </c>
+      <c r="W77">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-160.80000000000001</v>
+      </c>
+      <c r="Y77">
+        <v>119.8</v>
+      </c>
+      <c r="Z77">
+        <v>0.4</v>
+      </c>
+      <c r="AA77">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>102.4</v>
+      </c>
+      <c r="D78">
+        <v>1111.3</v>
+      </c>
+      <c r="E78">
+        <v>782</v>
+      </c>
+      <c r="F78">
+        <v>611.20000000000005</v>
+      </c>
+      <c r="G78">
+        <v>2000</v>
+      </c>
+      <c r="H78">
+        <v>8603</v>
+      </c>
+      <c r="I78">
+        <v>308</v>
+      </c>
+      <c r="J78">
+        <v>1443</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>995</v>
+      </c>
+      <c r="O78">
+        <v>3508</v>
+      </c>
+      <c r="P78">
+        <v>1610</v>
+      </c>
+      <c r="Q78">
+        <v>178.5</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>15200</v>
+      </c>
+      <c r="T78">
+        <v>5095</v>
+      </c>
+      <c r="U78">
+        <v>405</v>
+      </c>
+      <c r="V78">
+        <v>299.5</v>
+      </c>
+      <c r="W78">
+        <v>-22.3</v>
+      </c>
+      <c r="X78">
+        <v>-95.7</v>
+      </c>
+      <c r="Y78">
+        <v>121</v>
+      </c>
+      <c r="Z78">
+        <v>0.9</v>
+      </c>
+      <c r="AA78">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-139.9</v>
+      </c>
+      <c r="D79">
+        <v>874.3</v>
+      </c>
+      <c r="E79">
+        <v>709.1</v>
+      </c>
+      <c r="F79">
+        <v>467.8</v>
+      </c>
+      <c r="G79">
+        <v>1805.2</v>
+      </c>
+      <c r="H79">
+        <v>8058.4</v>
+      </c>
+      <c r="I79">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="J79">
+        <v>1449.6</v>
+      </c>
+      <c r="K79">
+        <v>0.1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-0.8</v>
+      </c>
+      <c r="N79">
+        <v>891.5</v>
+      </c>
+      <c r="O79">
+        <v>3368.2</v>
+      </c>
+      <c r="P79">
+        <v>1590.9</v>
+      </c>
+      <c r="Q79">
+        <v>-169</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4690.2</v>
+      </c>
+      <c r="U79">
+        <v>235.9</v>
+      </c>
+      <c r="V79">
+        <v>-10.7</v>
+      </c>
+      <c r="W79">
+        <v>-22.1</v>
+      </c>
+      <c r="X79">
+        <v>-129.9</v>
+      </c>
+      <c r="Y79">
+        <v>108.3</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-139.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-95.4</v>
+      </c>
+      <c r="D80">
+        <v>490.6</v>
+      </c>
+      <c r="E80">
+        <v>500.2</v>
+      </c>
+      <c r="F80">
+        <v>176.1</v>
+      </c>
+      <c r="G80">
+        <v>2362.9</v>
+      </c>
+      <c r="H80">
+        <v>8604.2000000000007</v>
+      </c>
+      <c r="I80">
+        <v>214.1</v>
+      </c>
+      <c r="J80">
+        <v>2182.6999999999998</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>763</v>
+      </c>
+      <c r="O80">
+        <v>3958.8</v>
+      </c>
+      <c r="P80">
+        <v>2284</v>
+      </c>
+      <c r="Q80">
+        <v>873.2</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4645.3999999999996</v>
+      </c>
+      <c r="U80">
+        <v>1109.0999999999999</v>
+      </c>
+      <c r="V80">
+        <v>175.1</v>
+      </c>
+      <c r="W80">
+        <v>-21.9</v>
+      </c>
+      <c r="X80">
+        <v>658.1</v>
+      </c>
+      <c r="Y80">
+        <v>101</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-95.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>53.8</v>
+      </c>
+      <c r="D81">
+        <v>894.8</v>
+      </c>
+      <c r="E81">
+        <v>628.1</v>
+      </c>
+      <c r="F81">
+        <v>474.6</v>
+      </c>
+      <c r="G81">
+        <v>2579.6</v>
+      </c>
+      <c r="H81">
+        <v>8895.9</v>
+      </c>
+      <c r="I81">
+        <v>242.8</v>
+      </c>
+      <c r="J81">
+        <v>1930</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1178.2</v>
+      </c>
+      <c r="O81">
+        <v>4133.6000000000004</v>
+      </c>
+      <c r="P81">
+        <v>2331.5</v>
+      </c>
+      <c r="Q81">
+        <v>162.9</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4762.3</v>
+      </c>
+      <c r="U81">
+        <v>1272</v>
+      </c>
+      <c r="V81">
+        <v>207.1</v>
+      </c>
+      <c r="W81">
+        <v>-21.9</v>
+      </c>
+      <c r="X81">
+        <v>-23.9</v>
+      </c>
+      <c r="Y81">
+        <v>105.4</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>98.5</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1082.3</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>673</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>582.1</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1791</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9342</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>305</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1977</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1317</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4372</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2455</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-834.1</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>15000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4970</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>438</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>263.5</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-22.1</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-14.3</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>131</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>98.5</v>
       </c>
     </row>
